--- a/doc/2023年下期/画面全体イメージ（2023年下期）.xlsx
+++ b/doc/2023年下期/画面全体イメージ（2023年下期）.xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="RDFFUpjWftD60P+OdWgvMOUmBcXavt3XSKHbpnMg6Fg="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="8d1Y6zkV+iDfmFczwhTNOsDeYgO32UMahorllO1D9l4="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="99">
   <si>
     <t>メニュー画面</t>
   </si>
@@ -110,7 +110,7 @@
     <t>(ジャンル名）</t>
   </si>
   <si>
-    <t>※ジャンルIDを参照後にJUNJYOに紐づく、番組名を自動設定</t>
+    <t>※ジャンルIDを参照後にJUNJYOに紐づく、テレビのジャンル名を自動設定</t>
   </si>
   <si>
     <t>登録</t>
@@ -137,6 +137,9 @@
     <t>（ジャンル名）</t>
   </si>
   <si>
+    <t>※ジャンルIDを参照後にJUNJYOに紐づく、タレントのジャンル名を自動設定</t>
+  </si>
+  <si>
     <t>（※３）●年月週管理登録画面</t>
   </si>
   <si>
@@ -305,7 +308,7 @@
     <t>週の終了日（土曜日）</t>
   </si>
   <si>
-    <t>※ 出演番組を押すと、番組詳細の画面へ遷移する。（番組IDとジャンルとオンエア日を渡す）、ジャンルの列も作る。</t>
+    <t>※ 出演番組を押すと、番組詳細の画面へ遷移する。（番組IDとオンエア日と年月と週を渡す）</t>
   </si>
   <si>
     <t>※ 出演者の名称をリンクボタンにして、編集できるようにする。（タレント登録の更新モードに、タレントIDを渡して飛ぶ）</t>
@@ -325,7 +328,7 @@
     <numFmt numFmtId="167" formatCode="yyyy-mm-dd"/>
     <numFmt numFmtId="168" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -342,15 +345,9 @@
       <name val="游ゴシック"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -365,7 +362,6 @@
     <font>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -386,10 +382,9 @@
     <font>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,6 +425,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFCC"/>
         <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -568,12 +569,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="65">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -588,38 +586,30 @@
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -629,123 +619,101 @@
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="12" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="7" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="13" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf borderId="5" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="7" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="13" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="10" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" textRotation="0" wrapText="0"/>
+    <xf borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="0" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf borderId="13" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="7" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf borderId="7" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="10" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="13" fillId="0" fontId="9" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="13" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf borderId="11" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf borderId="13" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="13" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1045,14 +1013,14 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="10982325" cy="7724775"/>
+    <xdr:ext cx="11515725" cy="8258175"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image5.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1085,7 +1053,7 @@
     <xdr:ext cx="8153400" cy="4133850"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image3.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1380,2280 +1348,2316 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="5"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="4"/>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9"/>
-      <c r="M4" s="10"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="6"/>
-      <c r="M5" s="10"/>
+      <c r="B5" s="5"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="B6" s="6"/>
-      <c r="M6" s="10"/>
+      <c r="B6" s="5"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="B7" s="6"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="10"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="B8" s="6"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="14"/>
-      <c r="M8" s="10"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="6"/>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="H9" s="15" t="s">
+      <c r="F9" s="15"/>
+      <c r="H9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17" t="s">
+      <c r="J9" s="15"/>
+      <c r="K9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="10"/>
+      <c r="M9" s="9"/>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="6"/>
-      <c r="C10" s="15"/>
-      <c r="F10" s="16"/>
-      <c r="H10" s="15" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="14"/>
+      <c r="F10" s="15"/>
+      <c r="H10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="17" t="s">
+      <c r="J10" s="15"/>
+      <c r="K10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="10"/>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="B11" s="6"/>
-      <c r="C11" s="18"/>
-      <c r="F11" s="16"/>
-      <c r="H11" s="19" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="H11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="17" t="s">
+      <c r="J11" s="15"/>
+      <c r="K11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="10"/>
+      <c r="M11" s="9"/>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="6"/>
-      <c r="C12" s="18"/>
-      <c r="F12" s="16"/>
-      <c r="H12" s="15" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="H12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="16"/>
-      <c r="K12" s="17" t="s">
+      <c r="J12" s="15"/>
+      <c r="K12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="10"/>
+      <c r="M12" s="9"/>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="6"/>
-      <c r="C13" s="18"/>
-      <c r="F13" s="16"/>
-      <c r="H13" s="18"/>
-      <c r="J13" s="16"/>
-      <c r="M13" s="10"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="H13" s="14"/>
+      <c r="J13" s="15"/>
+      <c r="M13" s="9"/>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="B14" s="6"/>
-      <c r="C14" s="18"/>
-      <c r="F14" s="16"/>
-      <c r="H14" s="18"/>
-      <c r="J14" s="16"/>
-      <c r="M14" s="10"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="H14" s="14"/>
+      <c r="J14" s="15"/>
+      <c r="M14" s="9"/>
     </row>
     <row r="15" ht="18.75" customHeight="1">
-      <c r="B15" s="6"/>
-      <c r="C15" s="18"/>
-      <c r="F15" s="16"/>
-      <c r="H15" s="18"/>
-      <c r="J15" s="16"/>
-      <c r="M15" s="10"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="H15" s="14"/>
+      <c r="J15" s="15"/>
+      <c r="M15" s="9"/>
     </row>
     <row r="16" ht="18.75" customHeight="1">
-      <c r="B16" s="6"/>
-      <c r="C16" s="18"/>
-      <c r="F16" s="16"/>
-      <c r="H16" s="18"/>
-      <c r="J16" s="16"/>
-      <c r="M16" s="10"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="H16" s="14"/>
+      <c r="J16" s="15"/>
+      <c r="M16" s="9"/>
     </row>
     <row r="17" ht="18.75" customHeight="1">
-      <c r="B17" s="6"/>
-      <c r="C17" s="18"/>
-      <c r="F17" s="16"/>
-      <c r="H17" s="18"/>
-      <c r="J17" s="16"/>
-      <c r="M17" s="10"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="H17" s="14"/>
+      <c r="J17" s="15"/>
+      <c r="M17" s="9"/>
     </row>
     <row r="18" ht="18.75" customHeight="1">
-      <c r="B18" s="6"/>
-      <c r="C18" s="18"/>
-      <c r="F18" s="16"/>
-      <c r="H18" s="18"/>
-      <c r="J18" s="16"/>
-      <c r="M18" s="10"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="H18" s="14"/>
+      <c r="J18" s="15"/>
+      <c r="M18" s="9"/>
     </row>
     <row r="19" ht="18.75" customHeight="1">
-      <c r="B19" s="6"/>
-      <c r="C19" s="18"/>
-      <c r="F19" s="16"/>
-      <c r="H19" s="18"/>
-      <c r="J19" s="16"/>
-      <c r="M19" s="10"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="14"/>
+      <c r="F19" s="15"/>
+      <c r="H19" s="14"/>
+      <c r="J19" s="15"/>
+      <c r="M19" s="9"/>
     </row>
     <row r="20" ht="18.75" customHeight="1">
-      <c r="B20" s="6"/>
-      <c r="C20" s="18"/>
-      <c r="F20" s="16"/>
-      <c r="H20" s="18"/>
-      <c r="J20" s="16"/>
-      <c r="M20" s="10"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="H20" s="14"/>
+      <c r="J20" s="15"/>
+      <c r="M20" s="9"/>
     </row>
     <row r="21" ht="18.75" customHeight="1">
-      <c r="B21" s="6"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="22"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="22"/>
-      <c r="M21" s="10"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="19"/>
+      <c r="M21" s="9"/>
     </row>
     <row r="22" ht="18.75" customHeight="1">
-      <c r="B22" s="6"/>
-      <c r="M22" s="10"/>
+      <c r="B22" s="5"/>
+      <c r="M22" s="9"/>
     </row>
     <row r="23" ht="18.75" customHeight="1">
-      <c r="B23" s="6"/>
-      <c r="M23" s="10"/>
+      <c r="B23" s="5"/>
+      <c r="M23" s="9"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="25"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="22"/>
     </row>
     <row r="25" ht="18.75" customHeight="1"/>
     <row r="26" ht="18.75" customHeight="1">
       <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="17" t="s">
+      <c r="H26" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" ht="18.75" customHeight="1">
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="5"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="4"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
-      <c r="B28" s="6"/>
-      <c r="M28" s="10"/>
+      <c r="B28" s="5"/>
+      <c r="M28" s="9"/>
     </row>
     <row r="29" ht="18.75" customHeight="1">
-      <c r="B29" s="6"/>
-      <c r="M29" s="10"/>
+      <c r="B29" s="5"/>
+      <c r="M29" s="9"/>
     </row>
     <row r="30" ht="18.75" customHeight="1">
-      <c r="B30" s="6"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="27"/>
-      <c r="M30" s="10"/>
+      <c r="B30" s="5"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24"/>
+      <c r="M30" s="9"/>
     </row>
     <row r="31" ht="18.75" customHeight="1">
-      <c r="B31" s="6"/>
-      <c r="C31" s="17" t="s">
+      <c r="B31" s="5"/>
+      <c r="C31" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="2"/>
-      <c r="M31" s="10"/>
+      <c r="F31" s="1"/>
+      <c r="M31" s="9"/>
     </row>
     <row r="32" ht="18.75" customHeight="1">
-      <c r="B32" s="6"/>
-      <c r="M32" s="10"/>
+      <c r="B32" s="5"/>
+      <c r="M32" s="9"/>
     </row>
     <row r="33" ht="18.75" customHeight="1">
-      <c r="B33" s="6"/>
-      <c r="C33" s="17" t="s">
+      <c r="B33" s="5"/>
+      <c r="C33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="28"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="30"/>
-      <c r="M33" s="10"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="27"/>
+      <c r="M33" s="9"/>
     </row>
     <row r="34" ht="18.75" customHeight="1">
-      <c r="B34" s="6"/>
-      <c r="M34" s="10"/>
+      <c r="B34" s="5"/>
+      <c r="M34" s="9"/>
     </row>
     <row r="35" ht="18.75" customHeight="1">
-      <c r="B35" s="6"/>
-      <c r="C35" s="17" t="s">
+      <c r="B35" s="5"/>
+      <c r="C35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="28"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="31" t="s">
+      <c r="E35" s="25"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="M35" s="10"/>
-      <c r="N35" s="17" t="s">
+      <c r="M35" s="9"/>
+      <c r="N35" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="36" ht="18.75" customHeight="1">
-      <c r="B36" s="6"/>
-      <c r="M36" s="10"/>
+      <c r="B36" s="5"/>
+      <c r="M36" s="9"/>
     </row>
     <row r="37" ht="18.75" customHeight="1">
-      <c r="B37" s="6"/>
-      <c r="C37" s="17" t="s">
+      <c r="B37" s="5"/>
+      <c r="C37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G37" s="17" t="s">
+      <c r="G37" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M37" s="10"/>
-      <c r="N37" s="17" t="s">
+      <c r="M37" s="9"/>
+      <c r="N37" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="38" ht="18.75" customHeight="1">
-      <c r="B38" s="6"/>
-      <c r="M38" s="10"/>
+      <c r="B38" s="5"/>
+      <c r="M38" s="9"/>
     </row>
     <row r="39" ht="18.75" customHeight="1">
-      <c r="B39" s="6"/>
-      <c r="C39" s="17" t="s">
+      <c r="B39" s="5"/>
+      <c r="C39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="28"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="31" t="s">
+      <c r="E39" s="25"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="M39" s="10"/>
-      <c r="N39" s="17" t="s">
+      <c r="M39" s="9"/>
+      <c r="N39" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="40" ht="18.75" customHeight="1">
-      <c r="B40" s="6"/>
-      <c r="M40" s="10"/>
+      <c r="B40" s="5"/>
+      <c r="M40" s="9"/>
     </row>
     <row r="41" ht="18.75" customHeight="1">
-      <c r="B41" s="6"/>
-      <c r="C41" s="17" t="s">
+      <c r="B41" s="5"/>
+      <c r="C41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G41" s="17" t="s">
+      <c r="G41" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M41" s="10"/>
-      <c r="N41" s="17" t="s">
+      <c r="M41" s="9"/>
+      <c r="N41" s="29" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="42" ht="18.75" customHeight="1">
-      <c r="B42" s="6"/>
-      <c r="M42" s="10"/>
+      <c r="B42" s="5"/>
+      <c r="M42" s="9"/>
     </row>
     <row r="43" ht="18.75" customHeight="1">
-      <c r="B43" s="6"/>
-      <c r="M43" s="10"/>
+      <c r="B43" s="5"/>
+      <c r="M43" s="9"/>
     </row>
     <row r="44" ht="18.75" customHeight="1">
-      <c r="B44" s="6"/>
-      <c r="F44" s="32" t="s">
+      <c r="B44" s="5"/>
+      <c r="F44" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="M44" s="10"/>
+      <c r="M44" s="9"/>
     </row>
     <row r="45" ht="18.75" customHeight="1">
-      <c r="B45" s="23"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="25"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="22"/>
     </row>
     <row r="46" ht="18.75" customHeight="1"/>
     <row r="47" ht="18.75" customHeight="1">
       <c r="B47" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F47" s="17" t="s">
+      <c r="F47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H47" s="17" t="s">
+      <c r="H47" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="48" ht="18.75" customHeight="1">
-      <c r="B48" s="3"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="5"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="4"/>
     </row>
     <row r="49" ht="18.75" customHeight="1">
-      <c r="B49" s="6"/>
-      <c r="M49" s="10"/>
+      <c r="B49" s="5"/>
+      <c r="M49" s="9"/>
     </row>
     <row r="50" ht="18.75" customHeight="1">
-      <c r="B50" s="6"/>
-      <c r="M50" s="10"/>
+      <c r="B50" s="5"/>
+      <c r="M50" s="9"/>
     </row>
     <row r="51" ht="18.75" customHeight="1">
-      <c r="B51" s="6"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="27"/>
-      <c r="M51" s="10"/>
+      <c r="B51" s="5"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="24"/>
+      <c r="M51" s="9"/>
     </row>
     <row r="52" ht="18.75" customHeight="1">
-      <c r="B52" s="6"/>
-      <c r="C52" s="17" t="s">
+      <c r="B52" s="5"/>
+      <c r="C52" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F52" s="2"/>
-      <c r="M52" s="10"/>
+      <c r="F52" s="1"/>
+      <c r="M52" s="9"/>
     </row>
     <row r="53" ht="18.75" customHeight="1">
-      <c r="B53" s="6"/>
-      <c r="M53" s="10"/>
+      <c r="B53" s="5"/>
+      <c r="M53" s="9"/>
     </row>
     <row r="54" ht="18.75" customHeight="1">
-      <c r="B54" s="6"/>
-      <c r="C54" s="17" t="s">
+      <c r="B54" s="5"/>
+      <c r="C54" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E54" s="28"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="30"/>
-      <c r="M54" s="10"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="27"/>
+      <c r="M54" s="9"/>
     </row>
     <row r="55" ht="18.75" customHeight="1">
-      <c r="B55" s="6"/>
-      <c r="M55" s="10"/>
+      <c r="B55" s="5"/>
+      <c r="M55" s="9"/>
     </row>
     <row r="56" ht="18.75" customHeight="1">
-      <c r="B56" s="6"/>
-      <c r="C56" s="17" t="s">
+      <c r="B56" s="5"/>
+      <c r="C56" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E56" s="28"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="31" t="s">
+      <c r="E56" s="25"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="M56" s="10"/>
-      <c r="N56" s="17" t="s">
+      <c r="M56" s="9"/>
+      <c r="N56" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="57" ht="18.75" customHeight="1">
-      <c r="B57" s="6"/>
-      <c r="M57" s="10"/>
+      <c r="B57" s="5"/>
+      <c r="M57" s="9"/>
     </row>
     <row r="58" ht="18.75" customHeight="1">
-      <c r="B58" s="6"/>
-      <c r="C58" s="17" t="s">
+      <c r="B58" s="5"/>
+      <c r="C58" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E58" s="17" t="s">
+      <c r="E58" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G58" s="17" t="s">
+      <c r="G58" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M58" s="10"/>
-      <c r="N58" s="17" t="s">
-        <v>30</v>
+      <c r="M58" s="9"/>
+      <c r="N58" s="29" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="59" ht="18.75" customHeight="1">
-      <c r="B59" s="6"/>
-      <c r="M59" s="10"/>
+      <c r="B59" s="5"/>
+      <c r="M59" s="9"/>
     </row>
     <row r="60" ht="18.75" customHeight="1">
-      <c r="B60" s="6"/>
-      <c r="M60" s="10"/>
+      <c r="B60" s="5"/>
+      <c r="M60" s="9"/>
     </row>
     <row r="61" ht="18.75" customHeight="1">
-      <c r="B61" s="6"/>
-      <c r="F61" s="32" t="s">
+      <c r="B61" s="5"/>
+      <c r="F61" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="M61" s="10"/>
+      <c r="M61" s="9"/>
     </row>
     <row r="62" ht="18.75" customHeight="1">
-      <c r="B62" s="23"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="24"/>
-      <c r="L62" s="24"/>
-      <c r="M62" s="25"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="22"/>
     </row>
     <row r="63" ht="18.75" customHeight="1"/>
     <row r="64" ht="18.75" customHeight="1">
       <c r="B64" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD64" s="33"/>
-      <c r="AE64" s="33"/>
+        <v>40</v>
+      </c>
+      <c r="AD64" s="31"/>
+      <c r="AE64" s="31"/>
     </row>
     <row r="65" ht="18.75" customHeight="1">
-      <c r="B65" s="3"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="5"/>
-      <c r="T65" s="3"/>
-      <c r="U65" s="4"/>
-      <c r="V65" s="4"/>
-      <c r="W65" s="4"/>
-      <c r="X65" s="4"/>
-      <c r="Y65" s="4"/>
-      <c r="Z65" s="4"/>
-      <c r="AA65" s="4"/>
-      <c r="AB65" s="5"/>
-      <c r="AE65" s="33"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="4"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3"/>
+      <c r="X65" s="3"/>
+      <c r="Y65" s="3"/>
+      <c r="Z65" s="3"/>
+      <c r="AA65" s="3"/>
+      <c r="AB65" s="4"/>
+      <c r="AE65" s="31"/>
     </row>
     <row r="66" ht="18.75" customHeight="1">
-      <c r="B66" s="6"/>
-      <c r="M66" s="10"/>
-      <c r="T66" s="6"/>
-      <c r="AB66" s="10"/>
-      <c r="AE66" s="33"/>
+      <c r="B66" s="5"/>
+      <c r="M66" s="9"/>
+      <c r="T66" s="5"/>
+      <c r="AB66" s="9"/>
+      <c r="AE66" s="31"/>
     </row>
     <row r="67" ht="18.75" customHeight="1">
-      <c r="B67" s="6"/>
-      <c r="M67" s="10"/>
-      <c r="T67" s="6"/>
-      <c r="AB67" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE67" s="33"/>
+      <c r="B67" s="5"/>
+      <c r="M67" s="9"/>
+      <c r="T67" s="5"/>
+      <c r="AB67" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE67" s="31"/>
     </row>
     <row r="68" ht="18.75" customHeight="1">
-      <c r="B68" s="6"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="27"/>
-      <c r="M68" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="T68" s="6"/>
-      <c r="V68" s="26"/>
-      <c r="W68" s="17" t="s">
+      <c r="B68" s="5"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="24"/>
+      <c r="M68" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="AB68" s="10"/>
-      <c r="AE68" s="33"/>
+      <c r="T68" s="5"/>
+      <c r="V68" s="23"/>
+      <c r="W68" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB68" s="9"/>
+      <c r="AE68" s="31"/>
     </row>
     <row r="69" ht="18.75" customHeight="1">
-      <c r="B69" s="6"/>
-      <c r="C69" s="17" t="s">
-        <v>43</v>
+      <c r="B69" s="5"/>
+      <c r="C69" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D69" s="1"/>
-      <c r="E69" s="36"/>
+      <c r="E69" s="34"/>
       <c r="F69" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G69" s="34"/>
+      <c r="H69" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M69" s="9"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G69" s="36"/>
-      <c r="H69" s="17" t="s">
+      <c r="V69" s="1"/>
+      <c r="W69" s="34"/>
+      <c r="X69" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M69" s="10"/>
-      <c r="T69" s="6"/>
-      <c r="U69" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="V69" s="1"/>
-      <c r="W69" s="36"/>
-      <c r="X69" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y69" s="36"/>
-      <c r="Z69" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA69" s="37" t="s">
+      <c r="Y69" s="34"/>
+      <c r="Z69" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AB69" s="17" t="s">
+      <c r="AA69" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB69" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AE69" s="33"/>
+      <c r="AE69" s="31"/>
     </row>
     <row r="70" ht="18.75" customHeight="1">
-      <c r="B70" s="6"/>
-      <c r="M70" s="10"/>
-      <c r="T70" s="6"/>
-      <c r="AB70" s="10"/>
-      <c r="AE70" s="33"/>
+      <c r="B70" s="5"/>
+      <c r="M70" s="9"/>
+      <c r="T70" s="5"/>
+      <c r="AB70" s="9"/>
+      <c r="AE70" s="31"/>
     </row>
     <row r="71" ht="18.75" customHeight="1">
-      <c r="B71" s="6"/>
-      <c r="C71" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E71" s="36"/>
-      <c r="F71" s="17" t="s">
+      <c r="B71" s="5"/>
+      <c r="C71" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M71" s="10"/>
-      <c r="T71" s="6"/>
-      <c r="U71" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="W71" s="36"/>
-      <c r="X71" s="17" t="s">
+      <c r="E71" s="34"/>
+      <c r="F71" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M71" s="9"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Y71" s="17" t="s">
+      <c r="W71" s="34"/>
+      <c r="X71" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y71" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AB71" s="10"/>
-      <c r="AE71" s="33"/>
+      <c r="AB71" s="9"/>
+      <c r="AE71" s="31"/>
     </row>
     <row r="72" ht="18.75" customHeight="1">
-      <c r="B72" s="6"/>
-      <c r="M72" s="10"/>
-      <c r="T72" s="6"/>
-      <c r="AB72" s="10"/>
-      <c r="AE72" s="33"/>
+      <c r="B72" s="5"/>
+      <c r="M72" s="9"/>
+      <c r="T72" s="5"/>
+      <c r="AB72" s="9"/>
+      <c r="AE72" s="31"/>
     </row>
     <row r="73" ht="18.75" customHeight="1">
-      <c r="B73" s="6"/>
-      <c r="C73" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F73" s="28"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="17" t="s">
+      <c r="B73" s="5"/>
+      <c r="C73" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="M73" s="10"/>
-      <c r="N73" s="17" t="s">
+      <c r="F73" s="25"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T73" s="6"/>
-      <c r="U73" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="X73" s="28"/>
-      <c r="Y73" s="30"/>
-      <c r="Z73" s="17" t="s">
+      <c r="M73" s="9"/>
+      <c r="N73" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T73" s="5"/>
+      <c r="U73" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AB73" s="10"/>
-      <c r="AC73" s="17" t="s">
+      <c r="X73" s="25"/>
+      <c r="Y73" s="27"/>
+      <c r="Z73" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AE73" s="33"/>
+      <c r="AB73" s="9"/>
+      <c r="AC73" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE73" s="31"/>
     </row>
     <row r="74" ht="18.75" customHeight="1">
-      <c r="B74" s="6"/>
-      <c r="M74" s="10"/>
-      <c r="T74" s="6"/>
-      <c r="AB74" s="10"/>
-      <c r="AE74" s="33"/>
+      <c r="B74" s="5"/>
+      <c r="M74" s="9"/>
+      <c r="T74" s="5"/>
+      <c r="AB74" s="9"/>
+      <c r="AE74" s="31"/>
     </row>
     <row r="75" ht="18.75" customHeight="1">
-      <c r="B75" s="6"/>
-      <c r="C75" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F75" s="28"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="M75" s="10"/>
-      <c r="N75" s="17" t="s">
+      <c r="B75" s="5"/>
+      <c r="C75" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="T75" s="6"/>
-      <c r="U75" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="X75" s="28"/>
-      <c r="Y75" s="30"/>
-      <c r="Z75" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB75" s="10"/>
-      <c r="AC75" s="17" t="s">
+      <c r="F75" s="25"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M75" s="9"/>
+      <c r="N75" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T75" s="5"/>
+      <c r="U75" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AE75" s="33"/>
+      <c r="X75" s="25"/>
+      <c r="Y75" s="27"/>
+      <c r="Z75" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB75" s="9"/>
+      <c r="AC75" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE75" s="31"/>
     </row>
     <row r="76" ht="18.75" customHeight="1">
-      <c r="B76" s="6"/>
-      <c r="M76" s="10"/>
-      <c r="T76" s="6"/>
-      <c r="AB76" s="10"/>
-      <c r="AE76" s="33"/>
+      <c r="B76" s="5"/>
+      <c r="M76" s="9"/>
+      <c r="T76" s="5"/>
+      <c r="AB76" s="9"/>
+      <c r="AE76" s="31"/>
     </row>
     <row r="77" ht="18.75" customHeight="1">
-      <c r="B77" s="6"/>
-      <c r="M77" s="10"/>
-      <c r="T77" s="6"/>
-      <c r="AB77" s="10"/>
-      <c r="AE77" s="33"/>
+      <c r="B77" s="5"/>
+      <c r="M77" s="9"/>
+      <c r="T77" s="5"/>
+      <c r="AB77" s="9"/>
+      <c r="AE77" s="31"/>
     </row>
     <row r="78" ht="18.75" customHeight="1">
-      <c r="B78" s="6"/>
-      <c r="F78" s="32" t="s">
+      <c r="B78" s="5"/>
+      <c r="F78" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="M78" s="10"/>
-      <c r="T78" s="6"/>
-      <c r="X78" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB78" s="10"/>
-      <c r="AD78" s="33"/>
-      <c r="AE78" s="33"/>
+      <c r="M78" s="9"/>
+      <c r="T78" s="5"/>
+      <c r="X78" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB78" s="9"/>
+      <c r="AD78" s="31"/>
+      <c r="AE78" s="31"/>
     </row>
     <row r="79" ht="18.75" customHeight="1">
-      <c r="B79" s="23"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="24"/>
-      <c r="J79" s="24"/>
-      <c r="K79" s="24"/>
-      <c r="L79" s="24"/>
-      <c r="M79" s="25"/>
-      <c r="T79" s="23"/>
-      <c r="U79" s="24"/>
-      <c r="V79" s="24"/>
-      <c r="W79" s="24"/>
-      <c r="X79" s="24"/>
-      <c r="Y79" s="24"/>
-      <c r="Z79" s="24"/>
-      <c r="AA79" s="24"/>
-      <c r="AB79" s="25"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="21"/>
+      <c r="M79" s="22"/>
+      <c r="T79" s="20"/>
+      <c r="U79" s="21"/>
+      <c r="V79" s="21"/>
+      <c r="W79" s="21"/>
+      <c r="X79" s="21"/>
+      <c r="Y79" s="21"/>
+      <c r="Z79" s="21"/>
+      <c r="AA79" s="21"/>
+      <c r="AB79" s="22"/>
     </row>
     <row r="80" ht="18.75" customHeight="1"/>
     <row r="81" ht="18.75" customHeight="1">
       <c r="B81" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E81" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G81" s="17" t="s">
-        <v>55</v>
+      <c r="G81" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="T81" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="W81" s="17" t="s">
         <v>57</v>
       </c>
+      <c r="W81" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="82" ht="18.75" customHeight="1">
-      <c r="B82" s="3"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="5"/>
-      <c r="T82" s="3"/>
-      <c r="U82" s="4"/>
-      <c r="V82" s="4"/>
-      <c r="W82" s="4"/>
-      <c r="X82" s="4"/>
-      <c r="Y82" s="4"/>
-      <c r="Z82" s="4"/>
-      <c r="AA82" s="4"/>
-      <c r="AB82" s="5"/>
-      <c r="AC82" s="33"/>
-      <c r="AD82" s="33"/>
-      <c r="AE82" s="33"/>
-      <c r="AF82" s="33"/>
-      <c r="AG82" s="33"/>
-      <c r="AH82" s="33"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="4"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="4"/>
+      <c r="AC82" s="31"/>
+      <c r="AD82" s="31"/>
+      <c r="AE82" s="31"/>
+      <c r="AF82" s="31"/>
+      <c r="AG82" s="31"/>
+      <c r="AH82" s="31"/>
     </row>
     <row r="83" ht="18.75" customHeight="1">
-      <c r="B83" s="6"/>
-      <c r="M83" s="10"/>
-      <c r="T83" s="6"/>
-      <c r="AB83" s="34"/>
-      <c r="AC83" s="33"/>
-      <c r="AE83" s="33"/>
-      <c r="AF83" s="33"/>
-      <c r="AG83" s="33"/>
-      <c r="AH83" s="33"/>
+      <c r="B83" s="5"/>
+      <c r="M83" s="9"/>
+      <c r="T83" s="5"/>
+      <c r="AB83" s="32"/>
+      <c r="AC83" s="31"/>
+      <c r="AE83" s="31"/>
+      <c r="AF83" s="31"/>
+      <c r="AG83" s="31"/>
+      <c r="AH83" s="31"/>
     </row>
     <row r="84" ht="18.75" customHeight="1">
-      <c r="B84" s="6"/>
-      <c r="M84" s="35" t="s">
+      <c r="B84" s="5"/>
+      <c r="M84" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="T84" s="5"/>
+      <c r="W84" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB84" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="T84" s="6"/>
-      <c r="W84" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB84" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC84" s="33"/>
-      <c r="AE84" s="33"/>
-      <c r="AF84" s="33"/>
-      <c r="AG84" s="33"/>
-      <c r="AH84" s="33"/>
+      <c r="AC84" s="31"/>
+      <c r="AE84" s="31"/>
+      <c r="AF84" s="31"/>
+      <c r="AG84" s="31"/>
+      <c r="AH84" s="31"/>
     </row>
     <row r="85" ht="18.75" customHeight="1">
-      <c r="B85" s="6"/>
-      <c r="C85" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D85" s="38"/>
-      <c r="E85" s="17" t="s">
+      <c r="B85" s="5"/>
+      <c r="C85" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D85" s="36"/>
+      <c r="E85" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J85" s="39"/>
-      <c r="M85" s="10"/>
-      <c r="T85" s="6"/>
-      <c r="U85" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="V85" s="38"/>
-      <c r="W85" s="28"/>
-      <c r="X85" s="30"/>
-      <c r="Y85" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z85" s="17" t="s">
+      <c r="J85" s="37"/>
+      <c r="M85" s="9"/>
+      <c r="T85" s="5"/>
+      <c r="U85" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V85" s="36"/>
+      <c r="W85" s="25"/>
+      <c r="X85" s="27"/>
+      <c r="Y85" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z85" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AB85" s="34"/>
-      <c r="AC85" s="33"/>
-      <c r="AE85" s="33"/>
-      <c r="AF85" s="33"/>
-      <c r="AG85" s="33"/>
-      <c r="AH85" s="33"/>
+      <c r="AB85" s="32"/>
+      <c r="AC85" s="31"/>
+      <c r="AE85" s="31"/>
+      <c r="AF85" s="31"/>
+      <c r="AG85" s="31"/>
+      <c r="AH85" s="31"/>
     </row>
     <row r="86" ht="18.75" customHeight="1">
-      <c r="B86" s="6"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="27"/>
-      <c r="M86" s="10"/>
-      <c r="T86" s="6"/>
-      <c r="V86" s="26"/>
-      <c r="W86" s="27"/>
-      <c r="AB86" s="10"/>
-      <c r="AC86" s="33"/>
-      <c r="AE86" s="33"/>
-      <c r="AF86" s="33"/>
-      <c r="AG86" s="33"/>
-      <c r="AH86" s="33"/>
+      <c r="B86" s="5"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="24"/>
+      <c r="M86" s="9"/>
+      <c r="T86" s="5"/>
+      <c r="V86" s="23"/>
+      <c r="W86" s="24"/>
+      <c r="AB86" s="9"/>
+      <c r="AC86" s="31"/>
+      <c r="AE86" s="31"/>
+      <c r="AF86" s="31"/>
+      <c r="AG86" s="31"/>
+      <c r="AH86" s="31"/>
     </row>
     <row r="87" ht="18.75" customHeight="1">
-      <c r="B87" s="6"/>
-      <c r="C87" s="17" t="s">
-        <v>60</v>
+      <c r="B87" s="5"/>
+      <c r="C87" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="D87" s="1"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="30"/>
-      <c r="G87" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="M87" s="10"/>
-      <c r="T87" s="6"/>
-      <c r="U87" s="17" t="s">
-        <v>60</v>
+      <c r="E87" s="25"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M87" s="9"/>
+      <c r="T87" s="5"/>
+      <c r="U87" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="V87" s="1"/>
-      <c r="W87" s="28"/>
-      <c r="X87" s="30"/>
-      <c r="Y87" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB87" s="10"/>
-      <c r="AC87" s="33"/>
-      <c r="AE87" s="33"/>
-      <c r="AF87" s="33"/>
-      <c r="AG87" s="33"/>
-      <c r="AH87" s="33"/>
+      <c r="W87" s="25"/>
+      <c r="X87" s="27"/>
+      <c r="Y87" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB87" s="9"/>
+      <c r="AC87" s="31"/>
+      <c r="AE87" s="31"/>
+      <c r="AF87" s="31"/>
+      <c r="AG87" s="31"/>
+      <c r="AH87" s="31"/>
     </row>
     <row r="88" ht="18.75" customHeight="1">
-      <c r="B88" s="6"/>
-      <c r="M88" s="10"/>
-      <c r="T88" s="6"/>
-      <c r="AB88" s="10"/>
-      <c r="AC88" s="33"/>
-      <c r="AE88" s="33"/>
-      <c r="AF88" s="33"/>
-      <c r="AG88" s="33"/>
-      <c r="AH88" s="33"/>
+      <c r="B88" s="5"/>
+      <c r="M88" s="9"/>
+      <c r="T88" s="5"/>
+      <c r="AB88" s="9"/>
+      <c r="AC88" s="31"/>
+      <c r="AE88" s="31"/>
+      <c r="AF88" s="31"/>
+      <c r="AG88" s="31"/>
+      <c r="AH88" s="31"/>
     </row>
     <row r="89" ht="18.75" customHeight="1">
-      <c r="B89" s="6"/>
-      <c r="C89" s="17" t="s">
+      <c r="B89" s="5"/>
+      <c r="C89" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D89" s="1"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="29"/>
-      <c r="G89" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="M89" s="10"/>
-      <c r="N89" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="T89" s="6"/>
-      <c r="U89" s="17" t="s">
+      <c r="E89" s="25"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="M89" s="9"/>
+      <c r="N89" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T89" s="5"/>
+      <c r="U89" s="1" t="s">
         <v>16</v>
       </c>
       <c r="V89" s="1"/>
-      <c r="W89" s="28"/>
-      <c r="X89" s="29"/>
-      <c r="Y89" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB89" s="10"/>
-      <c r="AC89" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE89" s="33"/>
-      <c r="AF89" s="33"/>
-      <c r="AG89" s="33"/>
-      <c r="AH89" s="33"/>
+      <c r="W89" s="25"/>
+      <c r="X89" s="26"/>
+      <c r="Y89" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB89" s="9"/>
+      <c r="AC89" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE89" s="31"/>
+      <c r="AF89" s="31"/>
+      <c r="AG89" s="31"/>
+      <c r="AH89" s="31"/>
     </row>
     <row r="90" ht="18.75" customHeight="1">
-      <c r="B90" s="6"/>
-      <c r="M90" s="10"/>
-      <c r="T90" s="6"/>
-      <c r="AB90" s="10"/>
-      <c r="AE90" s="33"/>
-      <c r="AF90" s="33"/>
-      <c r="AG90" s="33"/>
-      <c r="AH90" s="33"/>
+      <c r="B90" s="5"/>
+      <c r="M90" s="9"/>
+      <c r="T90" s="5"/>
+      <c r="AB90" s="9"/>
+      <c r="AE90" s="31"/>
+      <c r="AF90" s="31"/>
+      <c r="AG90" s="31"/>
+      <c r="AH90" s="31"/>
     </row>
     <row r="91" ht="18.75" customHeight="1">
-      <c r="B91" s="6"/>
-      <c r="C91" s="17" t="s">
+      <c r="B91" s="5"/>
+      <c r="C91" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E91" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F91" s="17" t="s">
+      <c r="E91" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M91" s="10"/>
-      <c r="T91" s="6"/>
-      <c r="U91" s="17" t="s">
+      <c r="M91" s="9"/>
+      <c r="T91" s="5"/>
+      <c r="U91" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W91" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="X91" s="2"/>
-      <c r="Z91" s="17" t="s">
+      <c r="W91" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X91" s="1"/>
+      <c r="Z91" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AB91" s="10"/>
-      <c r="AE91" s="33"/>
-      <c r="AF91" s="33"/>
-      <c r="AG91" s="33"/>
-      <c r="AH91" s="33"/>
+      <c r="AB91" s="9"/>
+      <c r="AE91" s="31"/>
+      <c r="AF91" s="31"/>
+      <c r="AG91" s="31"/>
+      <c r="AH91" s="31"/>
     </row>
     <row r="92" ht="18.75" customHeight="1">
-      <c r="B92" s="6"/>
-      <c r="M92" s="10"/>
-      <c r="T92" s="6"/>
-      <c r="AB92" s="10"/>
-      <c r="AE92" s="33"/>
-      <c r="AF92" s="33"/>
-      <c r="AG92" s="33"/>
-      <c r="AH92" s="33"/>
+      <c r="B92" s="5"/>
+      <c r="M92" s="9"/>
+      <c r="T92" s="5"/>
+      <c r="AB92" s="9"/>
+      <c r="AE92" s="31"/>
+      <c r="AF92" s="31"/>
+      <c r="AG92" s="31"/>
+      <c r="AH92" s="31"/>
     </row>
     <row r="93" ht="18.75" customHeight="1">
-      <c r="B93" s="6"/>
-      <c r="C93" s="17" t="s">
+      <c r="B93" s="5"/>
+      <c r="C93" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D93" s="1"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="M93" s="10"/>
-      <c r="N93" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="T93" s="6"/>
-      <c r="U93" s="17" t="s">
+      <c r="E93" s="25"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="M93" s="9"/>
+      <c r="N93" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T93" s="5"/>
+      <c r="U93" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V93" s="1"/>
-      <c r="W93" s="28"/>
-      <c r="X93" s="29"/>
-      <c r="Y93" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB93" s="10"/>
-      <c r="AC93" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE93" s="33"/>
-      <c r="AF93" s="33"/>
-      <c r="AG93" s="33"/>
-      <c r="AH93" s="33"/>
+      <c r="W93" s="25"/>
+      <c r="X93" s="26"/>
+      <c r="Y93" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB93" s="9"/>
+      <c r="AC93" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE93" s="31"/>
+      <c r="AF93" s="31"/>
+      <c r="AG93" s="31"/>
+      <c r="AH93" s="31"/>
     </row>
     <row r="94" ht="18.75" customHeight="1">
-      <c r="B94" s="6"/>
-      <c r="M94" s="10"/>
-      <c r="T94" s="6"/>
-      <c r="AB94" s="10"/>
-      <c r="AE94" s="33"/>
-      <c r="AF94" s="33"/>
-      <c r="AG94" s="33"/>
-      <c r="AH94" s="33"/>
+      <c r="B94" s="5"/>
+      <c r="M94" s="9"/>
+      <c r="T94" s="5"/>
+      <c r="AB94" s="9"/>
+      <c r="AE94" s="31"/>
+      <c r="AF94" s="31"/>
+      <c r="AG94" s="31"/>
+      <c r="AH94" s="31"/>
     </row>
     <row r="95" ht="18.75" customHeight="1">
-      <c r="B95" s="6"/>
-      <c r="C95" s="17" t="s">
+      <c r="B95" s="5"/>
+      <c r="C95" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E95" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G95" s="17" t="s">
+      <c r="E95" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G95" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M95" s="10"/>
-      <c r="T95" s="6"/>
-      <c r="U95" s="17" t="s">
+      <c r="M95" s="9"/>
+      <c r="T95" s="5"/>
+      <c r="U95" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="W95" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="X95" s="2"/>
-      <c r="Z95" s="17" t="s">
+      <c r="W95" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="X95" s="1"/>
+      <c r="Z95" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AB95" s="10"/>
-      <c r="AE95" s="33"/>
-      <c r="AF95" s="33"/>
-      <c r="AG95" s="33"/>
-      <c r="AH95" s="33"/>
+      <c r="AB95" s="9"/>
+      <c r="AE95" s="31"/>
+      <c r="AF95" s="31"/>
+      <c r="AG95" s="31"/>
+      <c r="AH95" s="31"/>
     </row>
     <row r="96" ht="18.75" customHeight="1">
-      <c r="B96" s="6"/>
-      <c r="M96" s="10"/>
-      <c r="T96" s="6"/>
-      <c r="AB96" s="10"/>
-      <c r="AE96" s="33"/>
-      <c r="AF96" s="33"/>
-      <c r="AG96" s="33"/>
-      <c r="AH96" s="33"/>
+      <c r="B96" s="5"/>
+      <c r="M96" s="9"/>
+      <c r="T96" s="5"/>
+      <c r="AB96" s="9"/>
+      <c r="AE96" s="31"/>
+      <c r="AF96" s="31"/>
+      <c r="AG96" s="31"/>
+      <c r="AH96" s="31"/>
     </row>
     <row r="97" ht="18.75" customHeight="1">
-      <c r="B97" s="6"/>
-      <c r="C97" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E97" s="28"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="31" t="s">
+      <c r="B97" s="5"/>
+      <c r="C97" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E97" s="25"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H97" s="17" t="s">
+      <c r="H97" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M97" s="10"/>
-      <c r="N97" s="17" t="s">
+      <c r="M97" s="9"/>
+      <c r="N97" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T97" s="5"/>
+      <c r="U97" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="T97" s="6"/>
-      <c r="U97" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="W97" s="28"/>
-      <c r="X97" s="29"/>
-      <c r="Y97" s="31" t="s">
+      <c r="W97" s="25"/>
+      <c r="X97" s="26"/>
+      <c r="Y97" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="AB97" s="10"/>
-      <c r="AC97" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE97" s="33"/>
-      <c r="AF97" s="33"/>
-      <c r="AG97" s="33"/>
-      <c r="AH97" s="33"/>
+      <c r="AB97" s="9"/>
+      <c r="AC97" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE97" s="31"/>
+      <c r="AF97" s="31"/>
+      <c r="AG97" s="31"/>
+      <c r="AH97" s="31"/>
     </row>
     <row r="98" ht="18.75" customHeight="1">
-      <c r="B98" s="6"/>
-      <c r="M98" s="10"/>
-      <c r="T98" s="6"/>
-      <c r="AB98" s="10"/>
-      <c r="AC98" s="33"/>
-      <c r="AE98" s="33"/>
-      <c r="AF98" s="33"/>
-      <c r="AG98" s="33"/>
-      <c r="AH98" s="33"/>
+      <c r="B98" s="5"/>
+      <c r="M98" s="9"/>
+      <c r="T98" s="5"/>
+      <c r="AB98" s="9"/>
+      <c r="AC98" s="31"/>
+      <c r="AE98" s="31"/>
+      <c r="AF98" s="31"/>
+      <c r="AG98" s="31"/>
+      <c r="AH98" s="31"/>
     </row>
     <row r="99" ht="18.75" customHeight="1">
-      <c r="B99" s="6"/>
-      <c r="M99" s="10"/>
-      <c r="T99" s="6"/>
-      <c r="AB99" s="10"/>
-      <c r="AC99" s="33"/>
-      <c r="AE99" s="33"/>
-      <c r="AF99" s="33"/>
-      <c r="AG99" s="33"/>
-      <c r="AH99" s="33"/>
+      <c r="B99" s="5"/>
+      <c r="M99" s="9"/>
+      <c r="T99" s="5"/>
+      <c r="AB99" s="9"/>
+      <c r="AC99" s="31"/>
+      <c r="AE99" s="31"/>
+      <c r="AF99" s="31"/>
+      <c r="AG99" s="31"/>
+      <c r="AH99" s="31"/>
     </row>
     <row r="100" ht="18.75" customHeight="1">
-      <c r="B100" s="6"/>
-      <c r="F100" s="32" t="s">
+      <c r="B100" s="5"/>
+      <c r="F100" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="M100" s="10"/>
-      <c r="T100" s="6"/>
-      <c r="X100" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB100" s="10"/>
-      <c r="AC100" s="33"/>
-      <c r="AE100" s="33"/>
-      <c r="AF100" s="33"/>
-      <c r="AG100" s="33"/>
-      <c r="AH100" s="33"/>
+      <c r="M100" s="9"/>
+      <c r="T100" s="5"/>
+      <c r="X100" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB100" s="9"/>
+      <c r="AC100" s="31"/>
+      <c r="AE100" s="31"/>
+      <c r="AF100" s="31"/>
+      <c r="AG100" s="31"/>
+      <c r="AH100" s="31"/>
     </row>
     <row r="101" ht="18.75" customHeight="1">
-      <c r="B101" s="23"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
-      <c r="H101" s="24"/>
-      <c r="I101" s="24"/>
-      <c r="J101" s="24"/>
-      <c r="K101" s="24"/>
-      <c r="L101" s="24"/>
-      <c r="M101" s="25"/>
-      <c r="T101" s="23"/>
-      <c r="U101" s="24"/>
-      <c r="V101" s="24"/>
-      <c r="W101" s="24"/>
-      <c r="X101" s="24"/>
-      <c r="Y101" s="24"/>
-      <c r="Z101" s="24"/>
-      <c r="AA101" s="24"/>
-      <c r="AB101" s="25"/>
-      <c r="AC101" s="33"/>
-      <c r="AD101" s="33"/>
-      <c r="AE101" s="33"/>
-      <c r="AF101" s="33"/>
-      <c r="AG101" s="33"/>
-      <c r="AH101" s="33"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="21"/>
+      <c r="I101" s="21"/>
+      <c r="J101" s="21"/>
+      <c r="K101" s="21"/>
+      <c r="L101" s="21"/>
+      <c r="M101" s="22"/>
+      <c r="T101" s="20"/>
+      <c r="U101" s="21"/>
+      <c r="V101" s="21"/>
+      <c r="W101" s="21"/>
+      <c r="X101" s="21"/>
+      <c r="Y101" s="21"/>
+      <c r="Z101" s="21"/>
+      <c r="AA101" s="21"/>
+      <c r="AB101" s="22"/>
+      <c r="AC101" s="31"/>
+      <c r="AD101" s="31"/>
+      <c r="AE101" s="31"/>
+      <c r="AF101" s="31"/>
+      <c r="AG101" s="31"/>
+      <c r="AH101" s="31"/>
     </row>
     <row r="102" ht="18.75" customHeight="1"/>
     <row r="103" ht="18.75" customHeight="1"/>
     <row r="104" ht="18.75" customHeight="1">
-      <c r="B104" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E104" s="17" t="s">
+      <c r="B104" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="E104" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="105" ht="18.75" customHeight="1">
-      <c r="B105" s="3"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
-      <c r="J105" s="4"/>
-      <c r="K105" s="4"/>
-      <c r="L105" s="4"/>
-      <c r="M105" s="5"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
+      <c r="M105" s="4"/>
     </row>
     <row r="106" ht="18.75" customHeight="1">
-      <c r="B106" s="6"/>
-      <c r="C106" s="17"/>
-      <c r="M106" s="10"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="1"/>
+      <c r="M106" s="9"/>
     </row>
     <row r="107" ht="18.75" customHeight="1">
-      <c r="B107" s="6"/>
-      <c r="C107" s="17"/>
-      <c r="M107" s="10"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="1"/>
+      <c r="M107" s="9"/>
     </row>
     <row r="108" ht="18.75" customHeight="1">
-      <c r="B108" s="6"/>
-      <c r="C108" s="17"/>
-      <c r="M108" s="10"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="1"/>
+      <c r="M108" s="9"/>
     </row>
     <row r="109" ht="18.75" customHeight="1">
-      <c r="B109" s="6"/>
-      <c r="C109" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E109" s="28"/>
-      <c r="F109" s="30"/>
-      <c r="M109" s="10"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E109" s="25"/>
+      <c r="F109" s="27"/>
+      <c r="M109" s="9"/>
     </row>
     <row r="110" ht="18.75" customHeight="1">
-      <c r="B110" s="6"/>
-      <c r="M110" s="10"/>
+      <c r="B110" s="5"/>
+      <c r="M110" s="9"/>
     </row>
     <row r="111" ht="18.75" customHeight="1">
-      <c r="B111" s="6"/>
-      <c r="C111" s="17" t="s">
+      <c r="B111" s="5"/>
+      <c r="C111" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D111" s="23"/>
+      <c r="E111" s="25"/>
+      <c r="F111" s="27"/>
+      <c r="M111" s="9"/>
+    </row>
+    <row r="112" ht="18.75" customHeight="1">
+      <c r="B112" s="5"/>
+      <c r="M112" s="9"/>
+      <c r="O112" s="38"/>
+    </row>
+    <row r="113" ht="18.75" customHeight="1">
+      <c r="B113" s="5"/>
+      <c r="C113" s="39"/>
+      <c r="D113" s="39"/>
+      <c r="E113" s="40"/>
+      <c r="F113" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="G113" s="39"/>
+      <c r="H113" s="39"/>
+      <c r="I113" s="39"/>
+      <c r="J113" s="39"/>
+      <c r="K113" s="39"/>
+      <c r="L113" s="39"/>
+      <c r="M113" s="9"/>
+    </row>
+    <row r="114" ht="18.75" customHeight="1">
+      <c r="B114" s="5"/>
+      <c r="C114" s="39"/>
+      <c r="D114" s="39"/>
+      <c r="E114" s="39"/>
+      <c r="F114" s="39"/>
+      <c r="G114" s="39"/>
+      <c r="H114" s="39"/>
+      <c r="I114" s="39"/>
+      <c r="J114" s="39"/>
+      <c r="K114" s="39"/>
+      <c r="L114" s="39"/>
+      <c r="M114" s="9"/>
+    </row>
+    <row r="115" ht="18.75" customHeight="1">
+      <c r="B115" s="5"/>
+      <c r="C115" s="42"/>
+      <c r="D115" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="D111" s="26"/>
-      <c r="E111" s="28"/>
-      <c r="F111" s="30"/>
-      <c r="M111" s="10"/>
-    </row>
-    <row r="112" ht="18.75" customHeight="1">
-      <c r="B112" s="6"/>
-      <c r="M112" s="10"/>
-      <c r="O112" s="40"/>
-    </row>
-    <row r="113" ht="18.75" customHeight="1">
-      <c r="B113" s="6"/>
-      <c r="C113" s="41"/>
-      <c r="D113" s="41"/>
-      <c r="E113" s="42"/>
-      <c r="F113" s="43" t="s">
+      <c r="E115" s="44"/>
+      <c r="F115" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="G113" s="41"/>
-      <c r="H113" s="41"/>
-      <c r="I113" s="41"/>
-      <c r="J113" s="41"/>
-      <c r="K113" s="41"/>
-      <c r="L113" s="41"/>
-      <c r="M113" s="10"/>
-    </row>
-    <row r="114" ht="18.75" customHeight="1">
-      <c r="B114" s="6"/>
-      <c r="C114" s="41"/>
-      <c r="D114" s="41"/>
-      <c r="E114" s="41"/>
-      <c r="F114" s="41"/>
-      <c r="G114" s="41"/>
-      <c r="H114" s="41"/>
-      <c r="I114" s="41"/>
-      <c r="J114" s="41"/>
-      <c r="K114" s="41"/>
-      <c r="L114" s="41"/>
-      <c r="M114" s="10"/>
-    </row>
-    <row r="115" ht="18.75" customHeight="1">
-      <c r="B115" s="6"/>
-      <c r="C115" s="44"/>
-      <c r="D115" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E115" s="46"/>
-      <c r="F115" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="G115" s="46"/>
-      <c r="H115" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="I115" s="47" t="s">
+      <c r="G115" s="44"/>
+      <c r="H115" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="M115" s="10"/>
+      <c r="I115" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="M115" s="9"/>
     </row>
     <row r="116" ht="18.75" customHeight="1">
-      <c r="B116" s="6"/>
-      <c r="C116" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="D116" s="49">
+      <c r="B116" s="5"/>
+      <c r="C116" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D116" s="47">
         <v>1.00000001E8</v>
       </c>
-      <c r="E116" s="50"/>
-      <c r="F116" s="51" t="s">
+      <c r="E116" s="48"/>
+      <c r="F116" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="G116" s="44"/>
+      <c r="H116" s="50">
+        <v>6.0</v>
+      </c>
+      <c r="I116" s="50">
+        <v>3.0</v>
+      </c>
+      <c r="J116" s="39"/>
+      <c r="K116" s="39"/>
+      <c r="L116" s="39"/>
+      <c r="M116" s="9"/>
+    </row>
+    <row r="117" ht="18.75" customHeight="1">
+      <c r="B117" s="5"/>
+      <c r="C117" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="G116" s="46"/>
-      <c r="H116" s="52">
-        <v>6.0</v>
-      </c>
-      <c r="I116" s="52">
+      <c r="D117" s="47">
+        <v>1.00000002E8</v>
+      </c>
+      <c r="E117" s="48"/>
+      <c r="F117" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="G117" s="44"/>
+      <c r="H117" s="50">
         <v>3.0</v>
       </c>
-      <c r="J116" s="41"/>
-      <c r="K116" s="41"/>
-      <c r="L116" s="41"/>
-      <c r="M116" s="10"/>
-    </row>
-    <row r="117" ht="18.75" customHeight="1">
-      <c r="B117" s="6"/>
-      <c r="C117" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="D117" s="53">
-        <v>1.00000002E8</v>
-      </c>
-      <c r="E117" s="50"/>
-      <c r="F117" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="G117" s="46"/>
-      <c r="H117" s="52">
+      <c r="I117" s="50">
         <v>3.0</v>
       </c>
-      <c r="I117" s="52">
+      <c r="J117" s="39"/>
+      <c r="K117" s="39"/>
+      <c r="L117" s="39"/>
+      <c r="M117" s="9"/>
+    </row>
+    <row r="118" ht="18.75" customHeight="1">
+      <c r="B118" s="5"/>
+      <c r="C118" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D118" s="47">
+        <v>1.00000003E8</v>
+      </c>
+      <c r="E118" s="48"/>
+      <c r="F118" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="G118" s="44"/>
+      <c r="H118" s="50">
         <v>3.0</v>
       </c>
-      <c r="J117" s="41"/>
-      <c r="K117" s="41"/>
-      <c r="L117" s="41"/>
-      <c r="M117" s="10"/>
-    </row>
-    <row r="118" ht="18.75" customHeight="1">
-      <c r="B118" s="6"/>
-      <c r="C118" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="D118" s="53">
-        <v>1.00000003E8</v>
-      </c>
-      <c r="E118" s="50"/>
-      <c r="F118" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="G118" s="46"/>
-      <c r="H118" s="52">
+      <c r="I118" s="50">
         <v>3.0</v>
       </c>
-      <c r="I118" s="52">
+      <c r="M118" s="9"/>
+    </row>
+    <row r="119" ht="18.75" customHeight="1">
+      <c r="B119" s="5"/>
+      <c r="C119" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D119" s="47">
+        <v>1.00000004E8</v>
+      </c>
+      <c r="E119" s="48"/>
+      <c r="F119" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G119" s="44"/>
+      <c r="H119" s="50">
         <v>3.0</v>
       </c>
-      <c r="M118" s="10"/>
-    </row>
-    <row r="119" ht="18.75" customHeight="1">
-      <c r="B119" s="6"/>
-      <c r="C119" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="D119" s="53">
-        <v>1.00000004E8</v>
-      </c>
-      <c r="E119" s="50"/>
-      <c r="F119" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="G119" s="46"/>
-      <c r="H119" s="52">
+      <c r="I119" s="50">
         <v>3.0</v>
       </c>
-      <c r="I119" s="52">
-        <v>3.0</v>
-      </c>
-      <c r="M119" s="10"/>
+      <c r="M119" s="9"/>
     </row>
     <row r="120" ht="18.75" customHeight="1">
-      <c r="B120" s="6"/>
-      <c r="C120" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="D120" s="53">
+      <c r="B120" s="5"/>
+      <c r="C120" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D120" s="47">
         <v>1.00000005E8</v>
       </c>
-      <c r="E120" s="50"/>
-      <c r="F120" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="G120" s="46"/>
-      <c r="H120" s="52">
+      <c r="E120" s="48"/>
+      <c r="F120" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="G120" s="44"/>
+      <c r="H120" s="50">
         <v>4.0</v>
       </c>
-      <c r="I120" s="52">
+      <c r="I120" s="50">
         <v>4.0</v>
       </c>
-      <c r="M120" s="10"/>
+      <c r="M120" s="9"/>
     </row>
     <row r="121" ht="18.75" customHeight="1">
-      <c r="B121" s="6"/>
-      <c r="C121" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="D121" s="56"/>
-      <c r="E121" s="56"/>
-      <c r="F121" s="56"/>
-      <c r="G121" s="56"/>
-      <c r="H121" s="56"/>
-      <c r="I121" s="56"/>
-      <c r="J121" s="41"/>
-      <c r="K121" s="41"/>
-      <c r="L121" s="41"/>
-      <c r="M121" s="10"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="D121" s="52"/>
+      <c r="E121" s="52"/>
+      <c r="F121" s="52"/>
+      <c r="G121" s="52"/>
+      <c r="H121" s="52"/>
+      <c r="I121" s="52"/>
+      <c r="J121" s="39"/>
+      <c r="K121" s="39"/>
+      <c r="L121" s="39"/>
+      <c r="M121" s="9"/>
     </row>
     <row r="122" ht="18.75" customHeight="1">
-      <c r="B122" s="57"/>
-      <c r="C122" s="41"/>
-      <c r="D122" s="41"/>
-      <c r="E122" s="41"/>
-      <c r="F122" s="41"/>
-      <c r="G122" s="41"/>
-      <c r="H122" s="41"/>
-      <c r="I122" s="41"/>
-      <c r="J122" s="41"/>
-      <c r="K122" s="41"/>
-      <c r="L122" s="41"/>
-      <c r="M122" s="10"/>
+      <c r="B122" s="14"/>
+      <c r="C122" s="39"/>
+      <c r="D122" s="39"/>
+      <c r="E122" s="39"/>
+      <c r="F122" s="39"/>
+      <c r="G122" s="39"/>
+      <c r="H122" s="39"/>
+      <c r="I122" s="39"/>
+      <c r="J122" s="39"/>
+      <c r="K122" s="39"/>
+      <c r="L122" s="39"/>
+      <c r="M122" s="9"/>
     </row>
     <row r="123" ht="18.75" customHeight="1">
-      <c r="B123" s="58"/>
-      <c r="C123" s="59"/>
-      <c r="D123" s="59"/>
-      <c r="E123" s="59"/>
-      <c r="F123" s="59"/>
-      <c r="G123" s="59"/>
-      <c r="H123" s="59"/>
-      <c r="I123" s="59"/>
-      <c r="J123" s="59"/>
-      <c r="K123" s="59"/>
-      <c r="L123" s="59"/>
-      <c r="M123" s="60"/>
+      <c r="B123" s="17"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="18"/>
+      <c r="F123" s="18"/>
+      <c r="G123" s="18"/>
+      <c r="H123" s="18"/>
+      <c r="I123" s="18"/>
+      <c r="J123" s="18"/>
+      <c r="K123" s="18"/>
+      <c r="L123" s="18"/>
+      <c r="M123" s="19"/>
     </row>
     <row r="124" ht="18.75" customHeight="1"/>
     <row r="125" ht="18.75" customHeight="1"/>
     <row r="126" ht="18.75" customHeight="1">
-      <c r="B126" s="17" t="s">
+      <c r="B126" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="127" ht="18.75" customHeight="1">
+      <c r="B127" s="2"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3"/>
+      <c r="K127" s="3"/>
+      <c r="L127" s="3"/>
+      <c r="M127" s="4"/>
+    </row>
+    <row r="128" ht="18.75" customHeight="1">
+      <c r="B128" s="5"/>
+      <c r="C128" s="1"/>
+      <c r="M128" s="9"/>
+    </row>
+    <row r="129" ht="18.75" customHeight="1">
+      <c r="B129" s="5"/>
+      <c r="C129" s="1"/>
+      <c r="M129" s="9"/>
+    </row>
+    <row r="130" ht="18.75" customHeight="1">
+      <c r="B130" s="5"/>
+      <c r="C130" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E130" s="25"/>
+      <c r="F130" s="27"/>
+      <c r="M130" s="9"/>
+    </row>
+    <row r="131" ht="18.75" customHeight="1">
+      <c r="B131" s="5"/>
+      <c r="M131" s="9"/>
+    </row>
+    <row r="132" ht="18.75" customHeight="1">
+      <c r="B132" s="5"/>
+      <c r="C132" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D132" s="23"/>
+      <c r="E132" s="25"/>
+      <c r="F132" s="27"/>
+      <c r="M132" s="9"/>
+    </row>
+    <row r="133" ht="18.75" customHeight="1">
+      <c r="B133" s="5"/>
+      <c r="M133" s="9"/>
+    </row>
+    <row r="134" ht="18.75" customHeight="1">
+      <c r="B134" s="5"/>
+      <c r="C134" s="39"/>
+      <c r="D134" s="39"/>
+      <c r="E134" s="40"/>
+      <c r="F134" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="G134" s="39"/>
+      <c r="H134" s="39"/>
+      <c r="I134" s="39"/>
+      <c r="J134" s="39"/>
+      <c r="K134" s="39"/>
+      <c r="L134" s="39"/>
+      <c r="M134" s="9"/>
+    </row>
+    <row r="135" ht="18.75" customHeight="1">
+      <c r="B135" s="5"/>
+      <c r="C135" s="39"/>
+      <c r="D135" s="39"/>
+      <c r="E135" s="39"/>
+      <c r="F135" s="39"/>
+      <c r="G135" s="39"/>
+      <c r="H135" s="39"/>
+      <c r="M135" s="9"/>
+    </row>
+    <row r="136" ht="18.75" customHeight="1">
+      <c r="B136" s="5"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E136" s="44"/>
+      <c r="F136" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="G136" s="44"/>
+      <c r="H136" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="M136" s="9"/>
+    </row>
+    <row r="137" ht="18.75" customHeight="1">
+      <c r="B137" s="5"/>
+      <c r="C137" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D137" s="47">
+        <v>1.00000001E8</v>
+      </c>
+      <c r="E137" s="48"/>
+      <c r="F137" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="G137" s="44"/>
+      <c r="H137" s="50">
+        <v>3.0</v>
+      </c>
+      <c r="M137" s="9"/>
+    </row>
+    <row r="138" ht="18.75" customHeight="1">
+      <c r="B138" s="5"/>
+      <c r="C138" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D138" s="47">
+        <v>1.00000002E8</v>
+      </c>
+      <c r="E138" s="48"/>
+      <c r="F138" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="G138" s="44"/>
+      <c r="H138" s="50">
+        <v>3.0</v>
+      </c>
+      <c r="K138" s="39"/>
+      <c r="L138" s="39"/>
+      <c r="M138" s="9"/>
+    </row>
+    <row r="139" ht="18.75" customHeight="1">
+      <c r="B139" s="5"/>
+      <c r="C139" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D139" s="47">
+        <v>1.00000003E8</v>
+      </c>
+      <c r="E139" s="48"/>
+      <c r="F139" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="G139" s="44"/>
+      <c r="H139" s="50">
+        <v>3.0</v>
+      </c>
+      <c r="M139" s="9"/>
+    </row>
+    <row r="140" ht="18.75" customHeight="1">
+      <c r="B140" s="5"/>
+      <c r="C140" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D140" s="47">
+        <v>1.00000004E8</v>
+      </c>
+      <c r="E140" s="48"/>
+      <c r="F140" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="G140" s="44"/>
+      <c r="H140" s="50">
+        <v>3.0</v>
+      </c>
+      <c r="M140" s="9"/>
+    </row>
+    <row r="141" ht="18.75" customHeight="1">
+      <c r="B141" s="5"/>
+      <c r="C141" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D141" s="47">
+        <v>1.00000005E8</v>
+      </c>
+      <c r="E141" s="48"/>
+      <c r="F141" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="G141" s="44"/>
+      <c r="H141" s="50">
+        <v>4.0</v>
+      </c>
+      <c r="M141" s="9"/>
+    </row>
+    <row r="142" ht="18.75" customHeight="1">
+      <c r="B142" s="5"/>
+      <c r="C142" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="E126" s="17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="127" ht="18.75" customHeight="1">
-      <c r="B127" s="3"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="4"/>
-      <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="4"/>
-      <c r="I127" s="4"/>
-      <c r="J127" s="4"/>
-      <c r="K127" s="4"/>
-      <c r="L127" s="4"/>
-      <c r="M127" s="5"/>
-    </row>
-    <row r="128" ht="18.75" customHeight="1">
-      <c r="B128" s="6"/>
-      <c r="C128" s="17"/>
-      <c r="M128" s="10"/>
-    </row>
-    <row r="129" ht="18.75" customHeight="1">
-      <c r="B129" s="6"/>
-      <c r="C129" s="17"/>
-      <c r="M129" s="10"/>
-    </row>
-    <row r="130" ht="18.75" customHeight="1">
-      <c r="B130" s="6"/>
-      <c r="C130" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E130" s="28"/>
-      <c r="F130" s="30"/>
-      <c r="M130" s="10"/>
-    </row>
-    <row r="131" ht="18.75" customHeight="1">
-      <c r="B131" s="6"/>
-      <c r="M131" s="10"/>
-    </row>
-    <row r="132" ht="18.75" customHeight="1">
-      <c r="B132" s="6"/>
-      <c r="C132" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D132" s="26"/>
-      <c r="E132" s="28"/>
-      <c r="F132" s="30"/>
-      <c r="M132" s="10"/>
-    </row>
-    <row r="133" ht="18.75" customHeight="1">
-      <c r="B133" s="6"/>
-      <c r="M133" s="10"/>
-    </row>
-    <row r="134" ht="18.75" customHeight="1">
-      <c r="B134" s="6"/>
-      <c r="C134" s="41"/>
-      <c r="D134" s="41"/>
-      <c r="E134" s="42"/>
-      <c r="F134" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="G134" s="41"/>
-      <c r="H134" s="41"/>
-      <c r="I134" s="41"/>
-      <c r="J134" s="41"/>
-      <c r="K134" s="41"/>
-      <c r="L134" s="41"/>
-      <c r="M134" s="10"/>
-    </row>
-    <row r="135" ht="18.75" customHeight="1">
-      <c r="B135" s="6"/>
-      <c r="C135" s="41"/>
-      <c r="D135" s="41"/>
-      <c r="E135" s="41"/>
-      <c r="F135" s="41"/>
-      <c r="G135" s="41"/>
-      <c r="H135" s="41"/>
-      <c r="M135" s="10"/>
-    </row>
-    <row r="136" ht="18.75" customHeight="1">
-      <c r="B136" s="6"/>
-      <c r="C136" s="44"/>
-      <c r="D136" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="E136" s="46"/>
-      <c r="F136" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="G136" s="46"/>
-      <c r="H136" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="M136" s="10"/>
-    </row>
-    <row r="137" ht="18.75" customHeight="1">
-      <c r="B137" s="6"/>
-      <c r="C137" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="D137" s="53">
-        <v>1.00000001E8</v>
-      </c>
-      <c r="E137" s="50"/>
-      <c r="F137" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="G137" s="46"/>
-      <c r="H137" s="52">
-        <v>3.0</v>
-      </c>
-      <c r="M137" s="10"/>
-    </row>
-    <row r="138" ht="18.75" customHeight="1">
-      <c r="B138" s="6"/>
-      <c r="C138" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="D138" s="53">
-        <v>1.00000002E8</v>
-      </c>
-      <c r="E138" s="50"/>
-      <c r="F138" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="G138" s="46"/>
-      <c r="H138" s="52">
-        <v>3.0</v>
-      </c>
-      <c r="K138" s="41"/>
-      <c r="L138" s="41"/>
-      <c r="M138" s="10"/>
-    </row>
-    <row r="139" ht="18.75" customHeight="1">
-      <c r="B139" s="6"/>
-      <c r="C139" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="D139" s="53">
-        <v>1.00000003E8</v>
-      </c>
-      <c r="E139" s="50"/>
-      <c r="F139" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="G139" s="46"/>
-      <c r="H139" s="52">
-        <v>3.0</v>
-      </c>
-      <c r="M139" s="10"/>
-    </row>
-    <row r="140" ht="18.75" customHeight="1">
-      <c r="B140" s="6"/>
-      <c r="C140" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="D140" s="53">
-        <v>1.00000004E8</v>
-      </c>
-      <c r="E140" s="50"/>
-      <c r="F140" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="G140" s="46"/>
-      <c r="H140" s="52">
-        <v>3.0</v>
-      </c>
-      <c r="M140" s="10"/>
-    </row>
-    <row r="141" ht="18.75" customHeight="1">
-      <c r="B141" s="6"/>
-      <c r="C141" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="D141" s="53">
-        <v>1.00000005E8</v>
-      </c>
-      <c r="E141" s="50"/>
-      <c r="F141" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="G141" s="46"/>
-      <c r="H141" s="52">
-        <v>4.0</v>
-      </c>
-      <c r="M141" s="10"/>
-    </row>
-    <row r="142" ht="18.75" customHeight="1">
-      <c r="B142" s="6"/>
-      <c r="C142" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="D142" s="56"/>
-      <c r="E142" s="56"/>
-      <c r="F142" s="56"/>
-      <c r="G142" s="56"/>
-      <c r="H142" s="56"/>
-      <c r="M142" s="10"/>
+      <c r="D142" s="52"/>
+      <c r="E142" s="52"/>
+      <c r="F142" s="52"/>
+      <c r="G142" s="52"/>
+      <c r="H142" s="52"/>
+      <c r="M142" s="9"/>
     </row>
     <row r="143" ht="18.75" customHeight="1">
-      <c r="B143" s="57"/>
-      <c r="C143" s="41"/>
-      <c r="D143" s="41"/>
-      <c r="E143" s="41"/>
-      <c r="F143" s="41"/>
-      <c r="G143" s="41"/>
-      <c r="H143" s="41"/>
-      <c r="M143" s="10"/>
+      <c r="B143" s="14"/>
+      <c r="C143" s="39"/>
+      <c r="D143" s="39"/>
+      <c r="E143" s="39"/>
+      <c r="F143" s="39"/>
+      <c r="G143" s="39"/>
+      <c r="H143" s="39"/>
+      <c r="M143" s="9"/>
     </row>
     <row r="144" ht="18.75" customHeight="1">
-      <c r="B144" s="58"/>
-      <c r="C144" s="59"/>
-      <c r="D144" s="59"/>
-      <c r="E144" s="59"/>
-      <c r="F144" s="59"/>
-      <c r="G144" s="59"/>
-      <c r="H144" s="59"/>
-      <c r="I144" s="59"/>
-      <c r="J144" s="59"/>
-      <c r="K144" s="59"/>
-      <c r="L144" s="59"/>
-      <c r="M144" s="60"/>
+      <c r="B144" s="17"/>
+      <c r="C144" s="18"/>
+      <c r="D144" s="18"/>
+      <c r="E144" s="18"/>
+      <c r="F144" s="18"/>
+      <c r="G144" s="18"/>
+      <c r="H144" s="18"/>
+      <c r="I144" s="18"/>
+      <c r="J144" s="18"/>
+      <c r="K144" s="18"/>
+      <c r="L144" s="18"/>
+      <c r="M144" s="19"/>
     </row>
     <row r="145" ht="18.75" customHeight="1"/>
     <row r="146" ht="18.75" customHeight="1">
-      <c r="B146" s="17" t="s">
+      <c r="B146" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="147" ht="18.75" customHeight="1">
+      <c r="B147" s="2"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3"/>
+      <c r="I147" s="3"/>
+      <c r="J147" s="3"/>
+      <c r="K147" s="3"/>
+      <c r="L147" s="3"/>
+      <c r="M147" s="4"/>
+    </row>
+    <row r="148" ht="18.75" customHeight="1">
+      <c r="B148" s="5"/>
+      <c r="C148" s="1"/>
+      <c r="M148" s="9"/>
+    </row>
+    <row r="149" ht="18.75" customHeight="1">
+      <c r="B149" s="5"/>
+      <c r="C149" s="1"/>
+      <c r="M149" s="9"/>
+    </row>
+    <row r="150" ht="18.75" customHeight="1">
+      <c r="B150" s="5"/>
+      <c r="C150" s="1"/>
+      <c r="M150" s="9"/>
+    </row>
+    <row r="151" ht="18.75" customHeight="1">
+      <c r="B151" s="5"/>
+      <c r="C151" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E151" s="25"/>
+      <c r="F151" s="27"/>
+      <c r="M151" s="9"/>
+    </row>
+    <row r="152" ht="18.75" customHeight="1">
+      <c r="B152" s="5"/>
+      <c r="M152" s="9"/>
+    </row>
+    <row r="153" ht="18.75" customHeight="1">
+      <c r="B153" s="5"/>
+      <c r="C153" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D153" s="23"/>
+      <c r="E153" s="25"/>
+      <c r="F153" s="27"/>
+      <c r="M153" s="9"/>
+    </row>
+    <row r="154" ht="18.75" customHeight="1">
+      <c r="B154" s="5"/>
+      <c r="M154" s="9"/>
+    </row>
+    <row r="155" ht="18.75" customHeight="1">
+      <c r="B155" s="5"/>
+      <c r="C155" s="39"/>
+      <c r="D155" s="39"/>
+      <c r="E155" s="40"/>
+      <c r="F155" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="G155" s="39"/>
+      <c r="H155" s="39"/>
+      <c r="I155" s="39"/>
+      <c r="J155" s="39"/>
+      <c r="K155" s="39"/>
+      <c r="L155" s="39"/>
+      <c r="M155" s="9"/>
+    </row>
+    <row r="156" ht="18.75" customHeight="1">
+      <c r="B156" s="5"/>
+      <c r="C156" s="39"/>
+      <c r="D156" s="39"/>
+      <c r="E156" s="39"/>
+      <c r="F156" s="39"/>
+      <c r="G156" s="39"/>
+      <c r="H156" s="39"/>
+      <c r="I156" s="39"/>
+      <c r="J156" s="39"/>
+      <c r="K156" s="39"/>
+      <c r="L156" s="39"/>
+      <c r="M156" s="9"/>
+    </row>
+    <row r="157" ht="18.75" customHeight="1">
+      <c r="B157" s="5"/>
+      <c r="C157" s="42"/>
+      <c r="D157" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="E157" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="F157" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="G157" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="H157" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="I157" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="J157" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="K157" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="M157" s="9"/>
+    </row>
+    <row r="158" ht="18.75" customHeight="1">
+      <c r="B158" s="5"/>
+      <c r="C158" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D158" s="47">
+        <v>1.00000001E8</v>
+      </c>
+      <c r="E158" s="55">
+        <v>45034.0</v>
+      </c>
+      <c r="F158" s="47">
+        <v>1.00000001E8</v>
+      </c>
+      <c r="G158" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="H158" s="47">
+        <v>1.00000001E8</v>
+      </c>
+      <c r="I158" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="J158" s="57">
+        <v>202304.0</v>
+      </c>
+      <c r="K158" s="58">
+        <v>3.0</v>
+      </c>
+      <c r="M158" s="9"/>
+    </row>
+    <row r="159" ht="18.75" customHeight="1">
+      <c r="B159" s="5"/>
+      <c r="C159" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D159" s="47">
+        <v>1.00000002E8</v>
+      </c>
+      <c r="E159" s="55">
+        <v>45034.0</v>
+      </c>
+      <c r="F159" s="47">
+        <v>1.00000002E8</v>
+      </c>
+      <c r="G159" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="H159" s="47">
+        <v>1.00000002E8</v>
+      </c>
+      <c r="I159" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="J159" s="57">
+        <v>202304.0</v>
+      </c>
+      <c r="K159" s="58">
+        <v>3.0</v>
+      </c>
+      <c r="M159" s="9"/>
+    </row>
+    <row r="160" ht="18.75" customHeight="1">
+      <c r="B160" s="5"/>
+      <c r="C160" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D160" s="47">
+        <v>1.00000003E8</v>
+      </c>
+      <c r="E160" s="55">
+        <v>45034.0</v>
+      </c>
+      <c r="F160" s="47">
+        <v>1.00000003E8</v>
+      </c>
+      <c r="G160" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="H160" s="47">
+        <v>1.00000003E8</v>
+      </c>
+      <c r="I160" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="J160" s="57">
+        <v>202304.0</v>
+      </c>
+      <c r="K160" s="58">
+        <v>3.0</v>
+      </c>
+      <c r="M160" s="9"/>
+    </row>
+    <row r="161" ht="18.75" customHeight="1">
+      <c r="B161" s="5"/>
+      <c r="C161" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D161" s="47">
+        <v>1.00000004E8</v>
+      </c>
+      <c r="E161" s="55">
+        <v>45035.0</v>
+      </c>
+      <c r="F161" s="47">
+        <v>1.00000004E8</v>
+      </c>
+      <c r="G161" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="H161" s="47">
+        <v>1.00000004E8</v>
+      </c>
+      <c r="I161" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="J161" s="57">
+        <v>202304.0</v>
+      </c>
+      <c r="K161" s="58">
+        <v>3.0</v>
+      </c>
+      <c r="M161" s="9"/>
+    </row>
+    <row r="162" ht="18.75" customHeight="1">
+      <c r="B162" s="5"/>
+      <c r="C162" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D162" s="47">
+        <v>1.00000005E8</v>
+      </c>
+      <c r="E162" s="55">
+        <v>45037.0</v>
+      </c>
+      <c r="F162" s="47">
+        <v>1.00000005E8</v>
+      </c>
+      <c r="G162" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="H162" s="47">
+        <v>1.00000005E8</v>
+      </c>
+      <c r="I162" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="E146" s="17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="147" ht="18.75" customHeight="1">
-      <c r="B147" s="3"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="4"/>
-      <c r="G147" s="4"/>
-      <c r="H147" s="4"/>
-      <c r="I147" s="4"/>
-      <c r="J147" s="4"/>
-      <c r="K147" s="4"/>
-      <c r="L147" s="4"/>
-      <c r="M147" s="5"/>
-    </row>
-    <row r="148" ht="18.75" customHeight="1">
-      <c r="B148" s="6"/>
-      <c r="C148" s="17"/>
-      <c r="M148" s="10"/>
-    </row>
-    <row r="149" ht="18.75" customHeight="1">
-      <c r="B149" s="6"/>
-      <c r="C149" s="17"/>
-      <c r="M149" s="10"/>
-    </row>
-    <row r="150" ht="18.75" customHeight="1">
-      <c r="B150" s="6"/>
-      <c r="C150" s="17"/>
-      <c r="M150" s="10"/>
-    </row>
-    <row r="151" ht="18.75" customHeight="1">
-      <c r="B151" s="6"/>
-      <c r="C151" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E151" s="28"/>
-      <c r="F151" s="30"/>
-      <c r="M151" s="10"/>
-    </row>
-    <row r="152" ht="18.75" customHeight="1">
-      <c r="B152" s="6"/>
-      <c r="M152" s="10"/>
-    </row>
-    <row r="153" ht="18.75" customHeight="1">
-      <c r="B153" s="6"/>
-      <c r="C153" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D153" s="26"/>
-      <c r="E153" s="28"/>
-      <c r="F153" s="30"/>
-      <c r="M153" s="10"/>
-    </row>
-    <row r="154" ht="18.75" customHeight="1">
-      <c r="B154" s="6"/>
-      <c r="M154" s="10"/>
-    </row>
-    <row r="155" ht="18.75" customHeight="1">
-      <c r="B155" s="6"/>
-      <c r="C155" s="41"/>
-      <c r="D155" s="41"/>
-      <c r="E155" s="42"/>
-      <c r="F155" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="G155" s="41"/>
-      <c r="H155" s="41"/>
-      <c r="I155" s="41"/>
-      <c r="J155" s="41"/>
-      <c r="K155" s="41"/>
-      <c r="L155" s="41"/>
-      <c r="M155" s="10"/>
-    </row>
-    <row r="156" ht="18.75" customHeight="1">
-      <c r="B156" s="6"/>
-      <c r="C156" s="41"/>
-      <c r="D156" s="41"/>
-      <c r="E156" s="41"/>
-      <c r="F156" s="41"/>
-      <c r="G156" s="41"/>
-      <c r="H156" s="41"/>
-      <c r="I156" s="41"/>
-      <c r="J156" s="41"/>
-      <c r="K156" s="41"/>
-      <c r="L156" s="41"/>
-      <c r="M156" s="10"/>
-    </row>
-    <row r="157" ht="18.75" customHeight="1">
-      <c r="B157" s="6"/>
-      <c r="C157" s="44"/>
-      <c r="D157" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="E157" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="F157" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="G157" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="H157" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="I157" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="M157" s="10"/>
-    </row>
-    <row r="158" ht="18.75" customHeight="1">
-      <c r="B158" s="6"/>
-      <c r="C158" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="D158" s="53">
-        <v>1.00000001E8</v>
-      </c>
-      <c r="E158" s="63">
-        <v>45034.0</v>
-      </c>
-      <c r="F158" s="53">
-        <v>1.00000001E8</v>
-      </c>
-      <c r="G158" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="H158" s="65">
+      <c r="J162" s="57">
         <v>202304.0</v>
       </c>
-      <c r="I158" s="66">
+      <c r="K162" s="58">
         <v>3.0</v>
       </c>
-      <c r="M158" s="10"/>
-    </row>
-    <row r="159" ht="18.75" customHeight="1">
-      <c r="B159" s="6"/>
-      <c r="C159" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="D159" s="53">
-        <v>1.00000002E8</v>
-      </c>
-      <c r="E159" s="63">
-        <v>45034.0</v>
-      </c>
-      <c r="F159" s="53">
-        <v>1.00000002E8</v>
-      </c>
-      <c r="G159" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="H159" s="65">
-        <v>202304.0</v>
-      </c>
-      <c r="I159" s="66">
-        <v>3.0</v>
-      </c>
-      <c r="M159" s="10"/>
-    </row>
-    <row r="160" ht="18.75" customHeight="1">
-      <c r="B160" s="6"/>
-      <c r="C160" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="D160" s="53">
-        <v>1.00000003E8</v>
-      </c>
-      <c r="E160" s="63">
-        <v>45034.0</v>
-      </c>
-      <c r="F160" s="53">
-        <v>1.00000003E8</v>
-      </c>
-      <c r="G160" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="H160" s="65">
-        <v>202304.0</v>
-      </c>
-      <c r="I160" s="66">
-        <v>3.0</v>
-      </c>
-      <c r="M160" s="10"/>
-    </row>
-    <row r="161" ht="18.75" customHeight="1">
-      <c r="B161" s="6"/>
-      <c r="C161" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="D161" s="53">
-        <v>1.00000004E8</v>
-      </c>
-      <c r="E161" s="63">
-        <v>45035.0</v>
-      </c>
-      <c r="F161" s="53">
-        <v>1.00000004E8</v>
-      </c>
-      <c r="G161" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="H161" s="65">
-        <v>202304.0</v>
-      </c>
-      <c r="I161" s="66">
-        <v>3.0</v>
-      </c>
-      <c r="M161" s="10"/>
-    </row>
-    <row r="162" ht="18.75" customHeight="1">
-      <c r="B162" s="6"/>
-      <c r="C162" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="D162" s="53">
-        <v>1.00000005E8</v>
-      </c>
-      <c r="E162" s="63">
-        <v>45037.0</v>
-      </c>
-      <c r="F162" s="53">
-        <v>1.00000005E8</v>
-      </c>
-      <c r="G162" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="H162" s="65">
-        <v>202304.0</v>
-      </c>
-      <c r="I162" s="66">
-        <v>3.0</v>
-      </c>
-      <c r="M162" s="10"/>
+      <c r="M162" s="9"/>
     </row>
     <row r="163" ht="18.75" customHeight="1">
-      <c r="B163" s="6"/>
-      <c r="C163" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="D163" s="56"/>
-      <c r="E163" s="56"/>
-      <c r="F163" s="56"/>
-      <c r="G163" s="56"/>
-      <c r="H163" s="56"/>
-      <c r="I163" s="56"/>
-      <c r="M163" s="10"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="D163" s="52"/>
+      <c r="E163" s="52"/>
+      <c r="F163" s="52"/>
+      <c r="G163" s="52"/>
+      <c r="H163" s="52"/>
+      <c r="I163" s="52"/>
+      <c r="M163" s="9"/>
     </row>
     <row r="164" ht="18.75" customHeight="1">
-      <c r="B164" s="57"/>
-      <c r="C164" s="41"/>
-      <c r="D164" s="41"/>
-      <c r="E164" s="41"/>
-      <c r="F164" s="41"/>
-      <c r="G164" s="41"/>
-      <c r="H164" s="41"/>
-      <c r="I164" s="41"/>
-      <c r="M164" s="10"/>
+      <c r="B164" s="14"/>
+      <c r="C164" s="39"/>
+      <c r="D164" s="39"/>
+      <c r="E164" s="39"/>
+      <c r="F164" s="39"/>
+      <c r="G164" s="39"/>
+      <c r="H164" s="39"/>
+      <c r="I164" s="39"/>
+      <c r="M164" s="9"/>
     </row>
     <row r="165" ht="18.75" customHeight="1">
-      <c r="B165" s="58"/>
-      <c r="C165" s="59"/>
-      <c r="D165" s="59"/>
-      <c r="E165" s="59"/>
-      <c r="F165" s="59"/>
-      <c r="G165" s="59"/>
-      <c r="H165" s="59"/>
-      <c r="I165" s="59"/>
-      <c r="J165" s="59"/>
-      <c r="K165" s="59"/>
-      <c r="L165" s="59"/>
-      <c r="M165" s="60"/>
+      <c r="B165" s="17"/>
+      <c r="C165" s="18"/>
+      <c r="D165" s="18"/>
+      <c r="E165" s="18"/>
+      <c r="F165" s="18"/>
+      <c r="G165" s="18"/>
+      <c r="H165" s="18"/>
+      <c r="I165" s="18"/>
+      <c r="J165" s="18"/>
+      <c r="K165" s="18"/>
+      <c r="L165" s="18"/>
+      <c r="M165" s="19"/>
     </row>
     <row r="166" ht="18.75" customHeight="1"/>
     <row r="167" ht="18.75" customHeight="1">
-      <c r="B167" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E167" s="17" t="s">
-        <v>89</v>
+      <c r="B167" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="168" ht="18.75" customHeight="1">
-      <c r="B168" s="3"/>
-      <c r="C168" s="4"/>
-      <c r="D168" s="4"/>
-      <c r="E168" s="4"/>
-      <c r="F168" s="4"/>
-      <c r="G168" s="4"/>
-      <c r="H168" s="4"/>
-      <c r="I168" s="4"/>
-      <c r="J168" s="4"/>
-      <c r="K168" s="4"/>
-      <c r="L168" s="4"/>
-      <c r="M168" s="5"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
+      <c r="F168" s="3"/>
+      <c r="G168" s="3"/>
+      <c r="H168" s="3"/>
+      <c r="I168" s="3"/>
+      <c r="J168" s="3"/>
+      <c r="K168" s="3"/>
+      <c r="L168" s="3"/>
+      <c r="M168" s="4"/>
     </row>
     <row r="169" ht="18.75" customHeight="1">
-      <c r="B169" s="6"/>
-      <c r="C169" s="17"/>
-      <c r="M169" s="10"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="1"/>
+      <c r="M169" s="9"/>
     </row>
     <row r="170" ht="18.75" customHeight="1">
-      <c r="B170" s="6"/>
-      <c r="C170" s="17"/>
-      <c r="M170" s="10"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="1"/>
+      <c r="M170" s="9"/>
     </row>
     <row r="171" ht="18.75" customHeight="1">
-      <c r="B171" s="6"/>
-      <c r="C171" s="17" t="s">
-        <v>43</v>
+      <c r="B171" s="5"/>
+      <c r="C171" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D171" s="1"/>
-      <c r="E171" s="36"/>
+      <c r="E171" s="34"/>
       <c r="F171" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G171" s="34"/>
+      <c r="H171" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M171" s="9"/>
+    </row>
+    <row r="172" ht="18.75" customHeight="1">
+      <c r="B172" s="5"/>
+      <c r="M172" s="9"/>
+    </row>
+    <row r="173" ht="18.75" customHeight="1">
+      <c r="B173" s="5"/>
+      <c r="C173" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E173" s="34"/>
+      <c r="F173" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M173" s="9"/>
+    </row>
+    <row r="174" ht="18.75" customHeight="1">
+      <c r="B174" s="5"/>
+      <c r="M174" s="9"/>
+    </row>
+    <row r="175" ht="18.75" customHeight="1">
+      <c r="B175" s="5"/>
+      <c r="M175" s="9"/>
+    </row>
+    <row r="176" ht="18.75" customHeight="1">
+      <c r="B176" s="5"/>
+      <c r="C176" s="39"/>
+      <c r="D176" s="39"/>
+      <c r="E176" s="40"/>
+      <c r="F176" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="G176" s="39"/>
+      <c r="H176" s="39"/>
+      <c r="I176" s="39"/>
+      <c r="J176" s="39"/>
+      <c r="K176" s="39"/>
+      <c r="L176" s="39"/>
+      <c r="M176" s="9"/>
+    </row>
+    <row r="177" ht="18.75" customHeight="1">
+      <c r="B177" s="5"/>
+      <c r="C177" s="39"/>
+      <c r="D177" s="39"/>
+      <c r="E177" s="39"/>
+      <c r="F177" s="39"/>
+      <c r="G177" s="39"/>
+      <c r="H177" s="39"/>
+      <c r="I177" s="39"/>
+      <c r="J177" s="39"/>
+      <c r="K177" s="39"/>
+      <c r="L177" s="39"/>
+      <c r="M177" s="9"/>
+    </row>
+    <row r="178" ht="18.75" customHeight="1">
+      <c r="B178" s="5"/>
+      <c r="C178" s="42"/>
+      <c r="D178" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G171" s="36"/>
-      <c r="H171" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="M171" s="10"/>
-    </row>
-    <row r="172" ht="18.75" customHeight="1">
-      <c r="B172" s="6"/>
-      <c r="M172" s="10"/>
-    </row>
-    <row r="173" ht="18.75" customHeight="1">
-      <c r="B173" s="6"/>
-      <c r="C173" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E173" s="36"/>
-      <c r="F173" s="17" t="s">
+      <c r="E178" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="M173" s="10"/>
-    </row>
-    <row r="174" ht="18.75" customHeight="1">
-      <c r="B174" s="6"/>
-      <c r="M174" s="10"/>
-    </row>
-    <row r="175" ht="18.75" customHeight="1">
-      <c r="B175" s="6"/>
-      <c r="M175" s="10"/>
-    </row>
-    <row r="176" ht="18.75" customHeight="1">
-      <c r="B176" s="6"/>
-      <c r="C176" s="41"/>
-      <c r="D176" s="41"/>
-      <c r="E176" s="42"/>
-      <c r="F176" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="G176" s="41"/>
-      <c r="H176" s="41"/>
-      <c r="I176" s="41"/>
-      <c r="J176" s="41"/>
-      <c r="K176" s="41"/>
-      <c r="L176" s="41"/>
-      <c r="M176" s="10"/>
-    </row>
-    <row r="177" ht="18.75" customHeight="1">
-      <c r="B177" s="6"/>
-      <c r="C177" s="41"/>
-      <c r="D177" s="41"/>
-      <c r="E177" s="41"/>
-      <c r="F177" s="41"/>
-      <c r="G177" s="41"/>
-      <c r="H177" s="41"/>
-      <c r="I177" s="41"/>
-      <c r="J177" s="41"/>
-      <c r="K177" s="41"/>
-      <c r="L177" s="41"/>
-      <c r="M177" s="10"/>
-    </row>
-    <row r="178" ht="18.75" customHeight="1">
-      <c r="B178" s="6"/>
-      <c r="C178" s="44"/>
-      <c r="D178" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="E178" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="F178" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="G178" s="68" t="s">
+      <c r="F178" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="M178" s="10"/>
+      <c r="G178" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="M178" s="9"/>
     </row>
     <row r="179" ht="18.75" customHeight="1">
-      <c r="B179" s="6"/>
-      <c r="C179" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="D179" s="69">
+      <c r="B179" s="5"/>
+      <c r="C179" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D179" s="34">
         <v>202303.0</v>
       </c>
-      <c r="E179" s="69">
+      <c r="E179" s="34">
         <v>5.0</v>
       </c>
-      <c r="F179" s="70">
+      <c r="F179" s="60">
         <v>45011.0</v>
       </c>
-      <c r="G179" s="70">
+      <c r="G179" s="60">
         <v>45017.0</v>
       </c>
-      <c r="M179" s="10"/>
+      <c r="M179" s="9"/>
     </row>
     <row r="180" ht="18.75" customHeight="1">
-      <c r="B180" s="6"/>
-      <c r="C180" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="D180" s="69">
+      <c r="B180" s="5"/>
+      <c r="C180" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D180" s="34">
         <v>202304.0</v>
       </c>
-      <c r="E180" s="69">
+      <c r="E180" s="34">
         <v>1.0</v>
       </c>
-      <c r="F180" s="70">
+      <c r="F180" s="60">
         <v>45018.0</v>
       </c>
-      <c r="G180" s="70">
+      <c r="G180" s="60">
         <v>45024.0</v>
       </c>
-      <c r="M180" s="10"/>
+      <c r="M180" s="9"/>
     </row>
     <row r="181" ht="18.75" customHeight="1">
-      <c r="B181" s="6"/>
-      <c r="C181" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="D181" s="69">
+      <c r="B181" s="5"/>
+      <c r="C181" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D181" s="34">
         <v>202304.0</v>
       </c>
-      <c r="E181" s="69">
+      <c r="E181" s="34">
         <v>2.0</v>
       </c>
-      <c r="F181" s="70">
+      <c r="F181" s="60">
         <v>45025.0</v>
       </c>
-      <c r="G181" s="70">
+      <c r="G181" s="60">
         <v>45031.0</v>
       </c>
-      <c r="M181" s="10"/>
+      <c r="M181" s="9"/>
     </row>
     <row r="182" ht="18.75" customHeight="1">
-      <c r="B182" s="6"/>
-      <c r="C182" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="D182" s="69">
+      <c r="B182" s="5"/>
+      <c r="C182" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D182" s="34">
         <v>202304.0</v>
       </c>
-      <c r="E182" s="69">
+      <c r="E182" s="34">
         <v>3.0</v>
       </c>
-      <c r="F182" s="70">
+      <c r="F182" s="60">
         <v>45032.0</v>
       </c>
-      <c r="G182" s="70">
+      <c r="G182" s="60">
         <v>45038.0</v>
       </c>
-      <c r="M182" s="10"/>
+      <c r="M182" s="9"/>
     </row>
     <row r="183" ht="18.75" customHeight="1">
-      <c r="B183" s="6"/>
-      <c r="C183" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="D183" s="69">
+      <c r="B183" s="5"/>
+      <c r="C183" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D183" s="34">
         <v>202304.0</v>
       </c>
-      <c r="E183" s="69">
+      <c r="E183" s="34">
         <v>4.0</v>
       </c>
-      <c r="F183" s="70">
+      <c r="F183" s="60">
         <v>45039.0</v>
       </c>
-      <c r="G183" s="70">
+      <c r="G183" s="60">
         <v>45045.0</v>
       </c>
-      <c r="M183" s="10"/>
+      <c r="M183" s="9"/>
     </row>
     <row r="184" ht="18.75" customHeight="1">
-      <c r="B184" s="6"/>
-      <c r="C184" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="D184" s="56"/>
-      <c r="E184" s="56"/>
-      <c r="F184" s="56"/>
-      <c r="G184" s="56"/>
-      <c r="M184" s="10"/>
+      <c r="B184" s="5"/>
+      <c r="C184" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="D184" s="52"/>
+      <c r="E184" s="52"/>
+      <c r="F184" s="52"/>
+      <c r="G184" s="52"/>
+      <c r="M184" s="9"/>
     </row>
     <row r="185" ht="18.75" customHeight="1">
-      <c r="B185" s="57"/>
-      <c r="C185" s="41"/>
-      <c r="D185" s="41"/>
-      <c r="E185" s="41"/>
-      <c r="F185" s="41"/>
-      <c r="G185" s="41"/>
-      <c r="H185" s="41"/>
-      <c r="I185" s="41"/>
-      <c r="M185" s="10"/>
+      <c r="B185" s="14"/>
+      <c r="C185" s="39"/>
+      <c r="D185" s="39"/>
+      <c r="E185" s="39"/>
+      <c r="F185" s="39"/>
+      <c r="G185" s="39"/>
+      <c r="H185" s="39"/>
+      <c r="I185" s="39"/>
+      <c r="M185" s="9"/>
     </row>
     <row r="186" ht="18.75" customHeight="1">
-      <c r="B186" s="58"/>
-      <c r="C186" s="59"/>
-      <c r="D186" s="59"/>
-      <c r="E186" s="59"/>
-      <c r="F186" s="59"/>
-      <c r="G186" s="59"/>
-      <c r="H186" s="59"/>
-      <c r="I186" s="59"/>
-      <c r="J186" s="59"/>
-      <c r="K186" s="59"/>
-      <c r="L186" s="59"/>
-      <c r="M186" s="60"/>
+      <c r="B186" s="17"/>
+      <c r="C186" s="18"/>
+      <c r="D186" s="18"/>
+      <c r="E186" s="18"/>
+      <c r="F186" s="18"/>
+      <c r="G186" s="18"/>
+      <c r="H186" s="18"/>
+      <c r="I186" s="18"/>
+      <c r="J186" s="18"/>
+      <c r="K186" s="18"/>
+      <c r="L186" s="18"/>
+      <c r="M186" s="19"/>
     </row>
     <row r="187" ht="18.75" customHeight="1"/>
     <row r="188" ht="18.75" customHeight="1"/>
     <row r="189" ht="18.75" customHeight="1"/>
     <row r="190" ht="18.75" customHeight="1">
-      <c r="P190" s="71"/>
-      <c r="Q190" s="71"/>
-      <c r="R190" s="72"/>
-      <c r="S190" s="72"/>
+      <c r="P190" s="61"/>
+      <c r="Q190" s="61"/>
+      <c r="R190" s="62"/>
+      <c r="S190" s="62"/>
     </row>
     <row r="191" ht="18.75" customHeight="1">
-      <c r="P191" s="71"/>
-      <c r="Q191" s="71"/>
-      <c r="R191" s="72"/>
-      <c r="S191" s="72"/>
+      <c r="P191" s="61"/>
+      <c r="Q191" s="61"/>
+      <c r="R191" s="62"/>
+      <c r="S191" s="62"/>
     </row>
     <row r="192" ht="18.75" customHeight="1">
-      <c r="P192" s="71"/>
-      <c r="Q192" s="71"/>
-      <c r="R192" s="72"/>
-      <c r="S192" s="72"/>
+      <c r="P192" s="61"/>
+      <c r="Q192" s="61"/>
+      <c r="R192" s="62"/>
+      <c r="S192" s="62"/>
     </row>
     <row r="193" ht="18.75" customHeight="1">
-      <c r="P193" s="71"/>
-      <c r="Q193" s="71"/>
-      <c r="R193" s="72"/>
-      <c r="S193" s="72"/>
+      <c r="P193" s="61"/>
+      <c r="Q193" s="61"/>
+      <c r="R193" s="62"/>
+      <c r="S193" s="62"/>
     </row>
     <row r="194" ht="18.75" customHeight="1">
-      <c r="P194" s="71"/>
-      <c r="Q194" s="71"/>
-      <c r="R194" s="72"/>
-      <c r="S194" s="72"/>
+      <c r="P194" s="61"/>
+      <c r="Q194" s="61"/>
+      <c r="R194" s="62"/>
+      <c r="S194" s="62"/>
     </row>
     <row r="195" ht="18.75" customHeight="1">
-      <c r="P195" s="71"/>
-      <c r="Q195" s="71"/>
-      <c r="R195" s="72"/>
-      <c r="S195" s="72"/>
+      <c r="P195" s="61"/>
+      <c r="Q195" s="61"/>
+      <c r="R195" s="62"/>
+      <c r="S195" s="62"/>
     </row>
     <row r="196" ht="18.75" customHeight="1"/>
     <row r="197" ht="18.75" customHeight="1"/>
@@ -4447,6 +4451,20 @@
     <row r="985" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="D139:E139"/>
     <mergeCell ref="F119:G119"/>
     <mergeCell ref="F120:G120"/>
     <mergeCell ref="F136:G136"/>
@@ -4455,22 +4473,8 @@
     <mergeCell ref="F139:G139"/>
     <mergeCell ref="F140:G140"/>
     <mergeCell ref="F141:G141"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="F118:G118"/>
     <mergeCell ref="D140:E140"/>
     <mergeCell ref="D141:E141"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="D139:E139"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -4488,9 +4492,6 @@
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="6" width="12.63"/>
-  </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1"/>
@@ -5508,18 +5509,18 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="7">
-      <c r="H7" s="73" t="s">
-        <v>95</v>
+      <c r="H7" s="63" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="29">
-      <c r="J29" s="73" t="s">
-        <v>96</v>
+      <c r="J29" s="64" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="51">
-      <c r="J51" s="73" t="s">
-        <v>97</v>
+      <c r="J51" s="64" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/doc/2023年下期/画面全体イメージ（2023年下期）.xlsx
+++ b/doc/2023年下期/画面全体イメージ（2023年下期）.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="98">
   <si>
     <t>メニュー画面</t>
   </si>
@@ -143,48 +143,45 @@
     <t>（※３）●年月週管理登録画面</t>
   </si>
   <si>
-    <t>新規作成</t>
+    <t>（※参照で年月週管理のダイアログを表示して、選択した内容を表示）</t>
+  </si>
+  <si>
+    <t>年月</t>
+  </si>
+  <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>参照</t>
+  </si>
+  <si>
+    <t>週</t>
+  </si>
+  <si>
+    <t>週目</t>
+  </si>
+  <si>
+    <t>週の開始日（日曜日）：</t>
+  </si>
+  <si>
+    <t>📅</t>
+  </si>
+  <si>
+    <t>※登録時に週の開始日のチェックをする</t>
+  </si>
+  <si>
+    <t>週の終了日（土曜日）：</t>
+  </si>
+  <si>
+    <t>※登録時に週の終了日のチェックをする</t>
   </si>
   <si>
     <t>更新</t>
   </si>
   <si>
-    <t>（※参照で年月週管理のダイアログを表示して、選択した内容を表示）</t>
-  </si>
-  <si>
-    <t>年月</t>
-  </si>
-  <si>
-    <t>年</t>
-  </si>
-  <si>
-    <t>月</t>
-  </si>
-  <si>
-    <t>参照</t>
-  </si>
-  <si>
-    <t>週</t>
-  </si>
-  <si>
-    <t>週目</t>
-  </si>
-  <si>
-    <t>週の開始日（日曜日）：</t>
-  </si>
-  <si>
-    <t>📅</t>
-  </si>
-  <si>
-    <t>※登録時に週の開始日のチェックをする</t>
-  </si>
-  <si>
-    <t>週の終了日（土曜日）：</t>
-  </si>
-  <si>
-    <t>※登録時に週の終了日のチェックをする</t>
-  </si>
-  <si>
     <t>（※４）●オンエア管理登録</t>
   </si>
   <si>
@@ -308,10 +305,13 @@
     <t>週の終了日（土曜日）</t>
   </si>
   <si>
-    <t>※ 出演番組を押すと、番組詳細の画面へ遷移する。（番組IDとオンエア日と年月と週を渡す）</t>
-  </si>
-  <si>
-    <t>※ 出演者の名称をリンクボタンにして、編集できるようにする。（タレント登録の更新モードに、タレントIDを渡して飛ぶ）</t>
+    <t>※ 出演番組を押すと、番組詳細の画面へ遷移する。（番組IDとオンエア日と年月と週を渡す）
+年月週のリンクボタンを追加して、年月週管理登録画面（更新モード）へ遷移する。</t>
+  </si>
+  <si>
+    <t>※ 出演者の名称をリンクボタンにして、編集できるようにする。（タレント登録の更新モードに、タレントIDを渡して飛ぶ）
+先頭にIDの列を追加（オンエア管理テーブル.IDの列）
+年月週のリンクボタンを追加して、年月週管理登録画面（更新モード）へ遷移する。</t>
   </si>
   <si>
     <t>※ 番組名の名称をリンクボタンにして、編集できるようにする。（番組登録画面の更新モードに、番組IDを渡して飛ぶ）</t>
@@ -1013,11 +1013,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>-200025</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="11515725" cy="8258175"/>
+    <xdr:ext cx="12058650" cy="8458200"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image5.png" title="画像"/>
@@ -1053,7 +1053,7 @@
     <xdr:ext cx="8153400" cy="4133850"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image4.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1081,7 +1081,7 @@
     <xdr:ext cx="8153400" cy="4133850"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image3.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1109,7 +1109,7 @@
     <xdr:ext cx="6153150" cy="4191000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1910,22 +1910,18 @@
       <c r="B67" s="5"/>
       <c r="M67" s="9"/>
       <c r="T67" s="5"/>
-      <c r="AB67" s="32" t="s">
-        <v>41</v>
-      </c>
+      <c r="AB67" s="32"/>
       <c r="AE67" s="31"/>
     </row>
     <row r="68" ht="18.75" customHeight="1">
       <c r="B68" s="5"/>
       <c r="D68" s="23"/>
       <c r="E68" s="24"/>
-      <c r="M68" s="33" t="s">
-        <v>42</v>
-      </c>
+      <c r="M68" s="33"/>
       <c r="T68" s="5"/>
       <c r="V68" s="23"/>
       <c r="W68" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AB68" s="9"/>
       <c r="AE68" s="31"/>
@@ -1933,33 +1929,33 @@
     <row r="69" ht="18.75" customHeight="1">
       <c r="B69" s="5"/>
       <c r="C69" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="34"/>
       <c r="F69" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G69" s="34"/>
       <c r="H69" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M69" s="9"/>
       <c r="T69" s="5"/>
       <c r="U69" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="V69" s="1"/>
       <c r="W69" s="34"/>
       <c r="X69" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Y69" s="34"/>
       <c r="Z69" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA69" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AB69" s="1" t="s">
         <v>24</v>
@@ -1976,20 +1972,20 @@
     <row r="71" ht="18.75" customHeight="1">
       <c r="B71" s="5"/>
       <c r="C71" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E71" s="34"/>
       <c r="F71" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M71" s="9"/>
       <c r="T71" s="5"/>
       <c r="U71" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W71" s="34"/>
       <c r="X71" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Y71" s="1" t="s">
         <v>24</v>
@@ -2007,29 +2003,29 @@
     <row r="73" ht="18.75" customHeight="1">
       <c r="B73" s="5"/>
       <c r="C73" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F73" s="25"/>
       <c r="G73" s="27"/>
       <c r="H73" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="T73" s="5"/>
       <c r="U73" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="X73" s="25"/>
       <c r="Y73" s="27"/>
       <c r="Z73" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AB73" s="9"/>
       <c r="AC73" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE73" s="31"/>
     </row>
@@ -2043,29 +2039,29 @@
     <row r="75" ht="18.75" customHeight="1">
       <c r="B75" s="5"/>
       <c r="C75" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F75" s="25"/>
       <c r="G75" s="27"/>
       <c r="H75" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T75" s="5"/>
       <c r="U75" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="X75" s="25"/>
       <c r="Y75" s="27"/>
       <c r="Z75" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AB75" s="9"/>
       <c r="AC75" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AE75" s="31"/>
     </row>
@@ -2091,7 +2087,7 @@
       <c r="M78" s="9"/>
       <c r="T78" s="5"/>
       <c r="X78" s="30" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AB78" s="9"/>
       <c r="AD78" s="31"/>
@@ -2123,19 +2119,19 @@
     <row r="80" ht="18.75" customHeight="1"/>
     <row r="81" ht="18.75" customHeight="1">
       <c r="B81" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G81" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T81" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T81" s="1" t="s">
+      <c r="W81" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="W81" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="82" ht="18.75" customHeight="1">
@@ -2180,16 +2176,12 @@
     </row>
     <row r="84" ht="18.75" customHeight="1">
       <c r="B84" s="5"/>
-      <c r="M84" s="33" t="s">
-        <v>42</v>
-      </c>
+      <c r="M84" s="33"/>
       <c r="T84" s="5"/>
       <c r="W84" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB84" s="32" t="s">
-        <v>41</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="AB84" s="32"/>
       <c r="AC84" s="31"/>
       <c r="AE84" s="31"/>
       <c r="AF84" s="31"/>
@@ -2199,7 +2191,7 @@
     <row r="85" ht="18.75" customHeight="1">
       <c r="B85" s="5"/>
       <c r="C85" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D85" s="36"/>
       <c r="E85" s="1" t="s">
@@ -2209,13 +2201,13 @@
       <c r="M85" s="9"/>
       <c r="T85" s="5"/>
       <c r="U85" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V85" s="36"/>
       <c r="W85" s="25"/>
       <c r="X85" s="27"/>
       <c r="Y85" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z85" s="1" t="s">
         <v>24</v>
@@ -2245,24 +2237,24 @@
     <row r="87" ht="18.75" customHeight="1">
       <c r="B87" s="5"/>
       <c r="C87" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="25"/>
       <c r="F87" s="27"/>
       <c r="G87" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M87" s="9"/>
       <c r="T87" s="5"/>
       <c r="U87" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V87" s="1"/>
       <c r="W87" s="25"/>
       <c r="X87" s="27"/>
       <c r="Y87" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AB87" s="9"/>
       <c r="AC87" s="31"/>
@@ -2291,11 +2283,11 @@
       <c r="E89" s="25"/>
       <c r="F89" s="26"/>
       <c r="G89" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M89" s="9"/>
       <c r="N89" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T89" s="5"/>
       <c r="U89" s="1" t="s">
@@ -2305,11 +2297,11 @@
       <c r="W89" s="25"/>
       <c r="X89" s="26"/>
       <c r="Y89" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AB89" s="9"/>
       <c r="AC89" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE89" s="31"/>
       <c r="AF89" s="31"/>
@@ -2332,7 +2324,7 @@
         <v>18</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>24</v>
@@ -2343,7 +2335,7 @@
         <v>18</v>
       </c>
       <c r="W91" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X91" s="1"/>
       <c r="Z91" s="1" t="s">
@@ -2374,11 +2366,11 @@
       <c r="E93" s="25"/>
       <c r="F93" s="26"/>
       <c r="G93" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M93" s="9"/>
       <c r="N93" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T93" s="5"/>
       <c r="U93" s="1" t="s">
@@ -2388,11 +2380,11 @@
       <c r="W93" s="25"/>
       <c r="X93" s="26"/>
       <c r="Y93" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AB93" s="9"/>
       <c r="AC93" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AE93" s="31"/>
       <c r="AF93" s="31"/>
@@ -2415,7 +2407,7 @@
         <v>36</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>24</v>
@@ -2426,7 +2418,7 @@
         <v>36</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X95" s="1"/>
       <c r="Z95" s="1" t="s">
@@ -2451,7 +2443,7 @@
     <row r="97" ht="18.75" customHeight="1">
       <c r="B97" s="5"/>
       <c r="C97" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E97" s="25"/>
       <c r="F97" s="26"/>
@@ -2463,11 +2455,11 @@
       </c>
       <c r="M97" s="9"/>
       <c r="N97" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T97" s="5"/>
       <c r="U97" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W97" s="25"/>
       <c r="X97" s="26"/>
@@ -2476,7 +2468,7 @@
       </c>
       <c r="AB97" s="9"/>
       <c r="AC97" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AE97" s="31"/>
       <c r="AF97" s="31"/>
@@ -2513,7 +2505,7 @@
       <c r="M100" s="9"/>
       <c r="T100" s="5"/>
       <c r="X100" s="30" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AB100" s="9"/>
       <c r="AC100" s="31"/>
@@ -2555,10 +2547,10 @@
     <row r="103" ht="18.75" customHeight="1"/>
     <row r="104" ht="18.75" customHeight="1">
       <c r="B104" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="105" ht="18.75" customHeight="1">
@@ -2593,7 +2585,7 @@
     <row r="109" ht="18.75" customHeight="1">
       <c r="B109" s="5"/>
       <c r="C109" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E109" s="25"/>
       <c r="F109" s="27"/>
@@ -2606,7 +2598,7 @@
     <row r="111" ht="18.75" customHeight="1">
       <c r="B111" s="5"/>
       <c r="C111" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D111" s="23"/>
       <c r="E111" s="25"/>
@@ -2624,7 +2616,7 @@
       <c r="D113" s="39"/>
       <c r="E113" s="40"/>
       <c r="F113" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G113" s="39"/>
       <c r="H113" s="39"/>
@@ -2652,32 +2644,32 @@
       <c r="B115" s="5"/>
       <c r="C115" s="42"/>
       <c r="D115" s="43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E115" s="44"/>
       <c r="F115" s="43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G115" s="44"/>
       <c r="H115" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="I115" s="45" t="s">
         <v>73</v>
-      </c>
-      <c r="I115" s="45" t="s">
-        <v>74</v>
       </c>
       <c r="M115" s="9"/>
     </row>
     <row r="116" ht="18.75" customHeight="1">
       <c r="B116" s="5"/>
       <c r="C116" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D116" s="47">
         <v>1.00000001E8</v>
       </c>
       <c r="E116" s="48"/>
       <c r="F116" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G116" s="44"/>
       <c r="H116" s="50">
@@ -2694,14 +2686,14 @@
     <row r="117" ht="18.75" customHeight="1">
       <c r="B117" s="5"/>
       <c r="C117" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D117" s="47">
         <v>1.00000002E8</v>
       </c>
       <c r="E117" s="48"/>
       <c r="F117" s="49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G117" s="44"/>
       <c r="H117" s="50">
@@ -2718,14 +2710,14 @@
     <row r="118" ht="18.75" customHeight="1">
       <c r="B118" s="5"/>
       <c r="C118" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D118" s="47">
         <v>1.00000003E8</v>
       </c>
       <c r="E118" s="48"/>
       <c r="F118" s="49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G118" s="44"/>
       <c r="H118" s="50">
@@ -2739,14 +2731,14 @@
     <row r="119" ht="18.75" customHeight="1">
       <c r="B119" s="5"/>
       <c r="C119" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D119" s="47">
         <v>1.00000004E8</v>
       </c>
       <c r="E119" s="48"/>
       <c r="F119" s="49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G119" s="44"/>
       <c r="H119" s="50">
@@ -2760,14 +2752,14 @@
     <row r="120" ht="18.75" customHeight="1">
       <c r="B120" s="5"/>
       <c r="C120" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D120" s="47">
         <v>1.00000005E8</v>
       </c>
       <c r="E120" s="48"/>
       <c r="F120" s="49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G120" s="44"/>
       <c r="H120" s="50">
@@ -2781,7 +2773,7 @@
     <row r="121" ht="18.75" customHeight="1">
       <c r="B121" s="5"/>
       <c r="C121" s="51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D121" s="52"/>
       <c r="E121" s="52"/>
@@ -2826,10 +2818,10 @@
     <row r="125" ht="18.75" customHeight="1"/>
     <row r="126" ht="18.75" customHeight="1">
       <c r="B126" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E126" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="127" ht="18.75" customHeight="1">
@@ -2889,7 +2881,7 @@
       <c r="D134" s="39"/>
       <c r="E134" s="40"/>
       <c r="F134" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G134" s="39"/>
       <c r="H134" s="39"/>
@@ -2921,21 +2913,21 @@
       </c>
       <c r="G136" s="44"/>
       <c r="H136" s="45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M136" s="9"/>
     </row>
     <row r="137" ht="18.75" customHeight="1">
       <c r="B137" s="5"/>
       <c r="C137" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D137" s="47">
         <v>1.00000001E8</v>
       </c>
       <c r="E137" s="48"/>
       <c r="F137" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G137" s="44"/>
       <c r="H137" s="50">
@@ -2946,14 +2938,14 @@
     <row r="138" ht="18.75" customHeight="1">
       <c r="B138" s="5"/>
       <c r="C138" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D138" s="47">
         <v>1.00000002E8</v>
       </c>
       <c r="E138" s="48"/>
       <c r="F138" s="49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G138" s="44"/>
       <c r="H138" s="50">
@@ -2966,14 +2958,14 @@
     <row r="139" ht="18.75" customHeight="1">
       <c r="B139" s="5"/>
       <c r="C139" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D139" s="47">
         <v>1.00000003E8</v>
       </c>
       <c r="E139" s="48"/>
       <c r="F139" s="49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G139" s="44"/>
       <c r="H139" s="50">
@@ -2984,14 +2976,14 @@
     <row r="140" ht="18.75" customHeight="1">
       <c r="B140" s="5"/>
       <c r="C140" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D140" s="47">
         <v>1.00000004E8</v>
       </c>
       <c r="E140" s="48"/>
       <c r="F140" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G140" s="44"/>
       <c r="H140" s="50">
@@ -3002,14 +2994,14 @@
     <row r="141" ht="18.75" customHeight="1">
       <c r="B141" s="5"/>
       <c r="C141" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D141" s="47">
         <v>1.00000005E8</v>
       </c>
       <c r="E141" s="48"/>
       <c r="F141" s="49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G141" s="44"/>
       <c r="H141" s="50">
@@ -3020,7 +3012,7 @@
     <row r="142" ht="18.75" customHeight="1">
       <c r="B142" s="5"/>
       <c r="C142" s="51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D142" s="52"/>
       <c r="E142" s="52"/>
@@ -3056,10 +3048,10 @@
     <row r="145" ht="18.75" customHeight="1"/>
     <row r="146" ht="18.75" customHeight="1">
       <c r="B146" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E146" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="147" ht="18.75" customHeight="1">
@@ -3094,7 +3086,7 @@
     <row r="151" ht="18.75" customHeight="1">
       <c r="B151" s="5"/>
       <c r="C151" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E151" s="25"/>
       <c r="F151" s="27"/>
@@ -3107,7 +3099,7 @@
     <row r="153" ht="18.75" customHeight="1">
       <c r="B153" s="5"/>
       <c r="C153" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D153" s="23"/>
       <c r="E153" s="25"/>
@@ -3124,7 +3116,7 @@
       <c r="D155" s="39"/>
       <c r="E155" s="40"/>
       <c r="F155" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G155" s="39"/>
       <c r="H155" s="39"/>
@@ -3152,16 +3144,16 @@
       <c r="B157" s="5"/>
       <c r="C157" s="42"/>
       <c r="D157" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="E157" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="E157" s="53" t="s">
-        <v>92</v>
-      </c>
       <c r="F157" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="G157" s="53" t="s">
         <v>70</v>
-      </c>
-      <c r="G157" s="53" t="s">
-        <v>71</v>
       </c>
       <c r="H157" s="43" t="s">
         <v>34</v>
@@ -3170,17 +3162,17 @@
         <v>36</v>
       </c>
       <c r="J157" s="45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K157" s="54" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M157" s="9"/>
     </row>
     <row r="158" ht="18.75" customHeight="1">
       <c r="B158" s="5"/>
       <c r="C158" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D158" s="47">
         <v>1.00000001E8</v>
@@ -3192,13 +3184,13 @@
         <v>1.00000001E8</v>
       </c>
       <c r="G158" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H158" s="47">
         <v>1.00000001E8</v>
       </c>
       <c r="I158" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J158" s="57">
         <v>202304.0</v>
@@ -3211,7 +3203,7 @@
     <row r="159" ht="18.75" customHeight="1">
       <c r="B159" s="5"/>
       <c r="C159" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D159" s="47">
         <v>1.00000002E8</v>
@@ -3223,13 +3215,13 @@
         <v>1.00000002E8</v>
       </c>
       <c r="G159" s="56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H159" s="47">
         <v>1.00000002E8</v>
       </c>
       <c r="I159" s="49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J159" s="57">
         <v>202304.0</v>
@@ -3242,7 +3234,7 @@
     <row r="160" ht="18.75" customHeight="1">
       <c r="B160" s="5"/>
       <c r="C160" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D160" s="47">
         <v>1.00000003E8</v>
@@ -3254,13 +3246,13 @@
         <v>1.00000003E8</v>
       </c>
       <c r="G160" s="56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H160" s="47">
         <v>1.00000003E8</v>
       </c>
       <c r="I160" s="49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J160" s="57">
         <v>202304.0</v>
@@ -3273,7 +3265,7 @@
     <row r="161" ht="18.75" customHeight="1">
       <c r="B161" s="5"/>
       <c r="C161" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D161" s="47">
         <v>1.00000004E8</v>
@@ -3285,13 +3277,13 @@
         <v>1.00000004E8</v>
       </c>
       <c r="G161" s="56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H161" s="47">
         <v>1.00000004E8</v>
       </c>
       <c r="I161" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J161" s="57">
         <v>202304.0</v>
@@ -3304,7 +3296,7 @@
     <row r="162" ht="18.75" customHeight="1">
       <c r="B162" s="5"/>
       <c r="C162" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D162" s="47">
         <v>1.00000005E8</v>
@@ -3316,13 +3308,13 @@
         <v>1.00000005E8</v>
       </c>
       <c r="G162" s="56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H162" s="47">
         <v>1.00000005E8</v>
       </c>
       <c r="I162" s="49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J162" s="57">
         <v>202304.0</v>
@@ -3335,7 +3327,7 @@
     <row r="163" ht="18.75" customHeight="1">
       <c r="B163" s="5"/>
       <c r="C163" s="51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D163" s="52"/>
       <c r="E163" s="52"/>
@@ -3373,10 +3365,10 @@
     <row r="166" ht="18.75" customHeight="1"/>
     <row r="167" ht="18.75" customHeight="1">
       <c r="B167" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="168" ht="18.75" customHeight="1">
@@ -3406,16 +3398,16 @@
     <row r="171" ht="18.75" customHeight="1">
       <c r="B171" s="5"/>
       <c r="C171" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D171" s="1"/>
       <c r="E171" s="34"/>
       <c r="F171" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G171" s="34"/>
       <c r="H171" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M171" s="9"/>
     </row>
@@ -3426,11 +3418,11 @@
     <row r="173" ht="18.75" customHeight="1">
       <c r="B173" s="5"/>
       <c r="C173" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E173" s="34"/>
       <c r="F173" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M173" s="9"/>
     </row>
@@ -3448,7 +3440,7 @@
       <c r="D176" s="39"/>
       <c r="E176" s="40"/>
       <c r="F176" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G176" s="39"/>
       <c r="H176" s="39"/>
@@ -3476,23 +3468,23 @@
       <c r="B178" s="5"/>
       <c r="C178" s="42"/>
       <c r="D178" s="53" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E178" s="53" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F178" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="G178" s="59" t="s">
         <v>94</v>
-      </c>
-      <c r="G178" s="59" t="s">
-        <v>95</v>
       </c>
       <c r="M178" s="9"/>
     </row>
     <row r="179" ht="18.75" customHeight="1">
       <c r="B179" s="5"/>
       <c r="C179" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D179" s="34">
         <v>202303.0</v>
@@ -3511,7 +3503,7 @@
     <row r="180" ht="18.75" customHeight="1">
       <c r="B180" s="5"/>
       <c r="C180" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D180" s="34">
         <v>202304.0</v>
@@ -3530,7 +3522,7 @@
     <row r="181" ht="18.75" customHeight="1">
       <c r="B181" s="5"/>
       <c r="C181" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D181" s="34">
         <v>202304.0</v>
@@ -3549,7 +3541,7 @@
     <row r="182" ht="18.75" customHeight="1">
       <c r="B182" s="5"/>
       <c r="C182" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D182" s="34">
         <v>202304.0</v>
@@ -3568,7 +3560,7 @@
     <row r="183" ht="18.75" customHeight="1">
       <c r="B183" s="5"/>
       <c r="C183" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D183" s="34">
         <v>202304.0</v>
@@ -3587,7 +3579,7 @@
     <row r="184" ht="18.75" customHeight="1">
       <c r="B184" s="5"/>
       <c r="C184" s="51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D184" s="52"/>
       <c r="E184" s="52"/>
@@ -5510,24 +5502,24 @@
   <sheetData>
     <row r="7">
       <c r="H7" s="63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="J29" s="63" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="J29" s="64" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="51">
       <c r="J51" s="64" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="H7:J11"/>
-    <mergeCell ref="J29:L33"/>
     <mergeCell ref="J51:L55"/>
+    <mergeCell ref="J29:M35"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/doc/2023年下期/画面全体イメージ（2023年下期）.xlsx
+++ b/doc/2023年下期/画面全体イメージ（2023年下期）.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="96">
   <si>
     <t>メニュー画面</t>
   </si>
@@ -305,16 +305,7 @@
     <t>週の終了日（土曜日）</t>
   </si>
   <si>
-    <t>※ 出演番組を押すと、番組詳細の画面へ遷移する。（番組IDとオンエア日と年月と週を渡す）
-年月週のリンクボタンを追加して、年月週管理登録画面（更新モード）へ遷移する。</t>
-  </si>
-  <si>
-    <t>※ 出演者の名称をリンクボタンにして、編集できるようにする。（タレント登録の更新モードに、タレントIDを渡して飛ぶ）
-先頭にIDの列を追加（オンエア管理テーブル.IDの列）
-年月週のリンクボタンを追加して、年月週管理登録画面（更新モード）へ遷移する。</t>
-  </si>
-  <si>
-    <t>※ 番組名の名称をリンクボタンにして、編集できるようにする。（番組登録画面の更新モードに、番組IDを渡して飛ぶ）</t>
+    <t>※ 出演番組を押すと、番組詳細の画面へ遷移する。（番組IDとオンエア日と年月と週を渡す）</t>
   </si>
 </sst>
 </file>
@@ -569,7 +560,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -712,9 +703,6 @@
     <xf borderId="0" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -735,7 +723,7 @@
     <xdr:ext cx="7267575" cy="447675"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -763,7 +751,7 @@
     <xdr:ext cx="7562850" cy="447675"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -791,7 +779,7 @@
     <xdr:ext cx="7562850" cy="447675"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -819,7 +807,7 @@
     <xdr:ext cx="6838950" cy="447675"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -847,7 +835,7 @@
     <xdr:ext cx="7477125" cy="447675"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -875,7 +863,7 @@
     <xdr:ext cx="7477125" cy="447675"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -903,7 +891,7 @@
     <xdr:ext cx="8162925" cy="447675"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -931,7 +919,7 @@
     <xdr:ext cx="7477125" cy="447675"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -959,7 +947,7 @@
     <xdr:ext cx="7562850" cy="447675"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -987,7 +975,7 @@
     <xdr:ext cx="7477125" cy="447675"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1017,25 +1005,48 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>-200025</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="12058650" cy="8458200"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="画像"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
+    <xdr:ext cx="9810750" cy="9525000"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="8166636" cy="7924799"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="8166636" cy="7924799"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Shape 3"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId1">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="8166636" cy="7924799"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
@@ -1053,7 +1064,7 @@
     <xdr:ext cx="8153400" cy="4133850"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1109,7 +1120,7 @@
     <xdr:ext cx="6153150" cy="4191000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image4.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5505,21 +5516,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29">
-      <c r="J29" s="63" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="J51" s="64" t="s">
-        <v>97</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="H7:J11"/>
-    <mergeCell ref="J51:L55"/>
-    <mergeCell ref="J29:M35"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
